--- a/HW5/STAT736_HW5_Roberto_Villegas_Diaz_full_report.xlsx
+++ b/HW5/STAT736_HW5_Roberto_Villegas_Diaz_full_report.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDSU\2019\STAT736 Bioinformatics\Homeworks\HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.villegas-diaz/Library/Mobile Documents/com~apple~CloudDocs/SDSU/2019/STAT736 Bioinformatics/HW5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D959DD36-37AF-44CC-BD99-B45D9AA855D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75BC0B-32B9-1049-8073-55BA5D330F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A7BE4DD9-465A-48BE-8CA2-27A323D17C92}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{A7BE4DD9-465A-48BE-8CA2-27A323D17C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Microbial Contamination" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="99">
   <si>
     <t>Basic Statistics</t>
   </si>
@@ -251,13 +252,91 @@
   </si>
   <si>
     <t>Total reads after trimming</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>reads</t>
+  </si>
+  <si>
+    <t>taxReads</t>
+  </si>
+  <si>
+    <t>kmers</t>
+  </si>
+  <si>
+    <t>dup</t>
+  </si>
+  <si>
+    <t>cov</t>
+  </si>
+  <si>
+    <t>taxID</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>taxName</t>
+  </si>
+  <si>
+    <t>no rank</t>
+  </si>
+  <si>
+    <t>unclassified</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>  cellular organisms</t>
+  </si>
+  <si>
+    <t>superkingdom</t>
+  </si>
+  <si>
+    <t>    Bacteria</t>
+  </si>
+  <si>
+    <t>      Terrabacteria group</t>
+  </si>
+  <si>
+    <t>phylum</t>
+  </si>
+  <si>
+    <t>        Firmicutes</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>          Bacilli</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>            Bacillales</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>              Bacillaceae</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>                Bacillus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +373,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -736,7 +836,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -753,115 +853,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,16 +870,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -893,24 +948,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Passed" xfId="3" xr:uid="{12BC0741-1238-451B-A431-9362302A9C43}"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1832,62 +1945,62 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1920,212 +2033,212 @@
       <selection activeCell="A35" sqref="A35:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46" t="s">
+      <c r="R1" s="57"/>
+      <c r="S1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46" t="s">
+      <c r="V1" s="57"/>
+      <c r="W1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="58"/>
+    </row>
+    <row r="2" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="40">
         <v>118323219</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14">
+      <c r="D3" s="41"/>
+      <c r="E3" s="40">
         <v>103127231</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14">
+      <c r="F3" s="41"/>
+      <c r="G3" s="40">
         <v>91225885</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14">
+      <c r="H3" s="41"/>
+      <c r="I3" s="40">
         <v>108661623</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14">
+      <c r="J3" s="41"/>
+      <c r="K3" s="40">
         <v>136766553</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14">
+      <c r="L3" s="41"/>
+      <c r="M3" s="40">
         <v>124265478</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="14">
+      <c r="N3" s="41"/>
+      <c r="O3" s="40">
         <v>99685598</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="14">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="40">
         <v>106360532</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="14">
+      <c r="R3" s="41"/>
+      <c r="S3" s="40">
         <v>99988292</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="14">
+      <c r="T3" s="41"/>
+      <c r="U3" s="40">
         <v>75410310</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="14">
+      <c r="V3" s="41"/>
+      <c r="W3" s="40">
         <v>82750449</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="14">
+      <c r="X3" s="41"/>
+      <c r="Y3" s="40">
         <v>92454136</v>
       </c>
-      <c r="Z3" s="16"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2202,8 +2315,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2280,8 +2393,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2358,8 +2471,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2436,8 +2549,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2514,8 +2627,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2592,8 +2705,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2670,8 +2783,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2748,8 +2861,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2826,8 +2939,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -2904,666 +3017,666 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="40">
         <v>102779602</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14">
+      <c r="D14" s="41"/>
+      <c r="E14" s="40">
         <v>88509413</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14">
+      <c r="F14" s="41"/>
+      <c r="G14" s="40">
         <v>77240029</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14">
+      <c r="H14" s="41"/>
+      <c r="I14" s="40">
         <v>94179097</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14">
+      <c r="J14" s="41"/>
+      <c r="K14" s="40">
         <v>108337271</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="14">
+      <c r="L14" s="41"/>
+      <c r="M14" s="40">
         <v>92924182</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="14">
+      <c r="N14" s="41"/>
+      <c r="O14" s="40">
         <v>76172416</v>
       </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14">
+      <c r="P14" s="41"/>
+      <c r="Q14" s="40">
         <v>95488961</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="14">
+      <c r="R14" s="41"/>
+      <c r="S14" s="40">
         <v>69906417</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="14">
+      <c r="T14" s="41"/>
+      <c r="U14" s="40">
         <v>54427039</v>
       </c>
-      <c r="V14" s="15"/>
-      <c r="W14" s="14">
+      <c r="V14" s="41"/>
+      <c r="W14" s="40">
         <v>73771492</v>
       </c>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="14">
+      <c r="X14" s="41"/>
+      <c r="Y14" s="40">
         <v>82764590</v>
       </c>
-      <c r="Z14" s="16"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="Z14" s="53"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="60"/>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="50">
         <f>C14/C3</f>
         <v>0.86863426188565751</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23">
+      <c r="D15" s="51"/>
+      <c r="E15" s="50">
         <f>E14/E3</f>
         <v>0.85825452833112525</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23">
+      <c r="F15" s="51"/>
+      <c r="G15" s="50">
         <f t="shared" ref="G15" si="0">G14/G3</f>
         <v>0.84668982931763281</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23">
+      <c r="H15" s="51"/>
+      <c r="I15" s="50">
         <f t="shared" ref="I15" si="1">I14/I3</f>
         <v>0.86671903474145606</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23">
+      <c r="J15" s="51"/>
+      <c r="K15" s="50">
         <f t="shared" ref="K15" si="2">K14/K3</f>
         <v>0.79213278848959512</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="23">
+      <c r="L15" s="51"/>
+      <c r="M15" s="50">
         <f t="shared" ref="M15" si="3">M14/M3</f>
         <v>0.74778758747461627</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="23">
+      <c r="N15" s="51"/>
+      <c r="O15" s="50">
         <f t="shared" ref="O15" si="4">O14/O3</f>
         <v>0.76412658927922572</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="23">
+      <c r="P15" s="51"/>
+      <c r="Q15" s="50">
         <f t="shared" ref="Q15" si="5">Q14/Q3</f>
         <v>0.89778566545718297</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="23">
+      <c r="R15" s="51"/>
+      <c r="S15" s="50">
         <f t="shared" ref="S15" si="6">S14/S3</f>
         <v>0.69914602601672604</v>
       </c>
-      <c r="T15" s="24"/>
-      <c r="U15" s="23">
+      <c r="T15" s="51"/>
+      <c r="U15" s="50">
         <f t="shared" ref="U15" si="7">U14/U3</f>
         <v>0.72174532898750843</v>
       </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="23">
+      <c r="V15" s="51"/>
+      <c r="W15" s="50">
         <f t="shared" ref="W15" si="8">W14/W3</f>
         <v>0.89149355552137244</v>
       </c>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="23">
+      <c r="X15" s="51"/>
+      <c r="Y15" s="50">
         <f t="shared" ref="Y15" si="9">Y14/Y3</f>
         <v>0.89519618678822543</v>
       </c>
       <c r="Z15" s="52"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="60"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="47">
         <v>3202267</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25">
+      <c r="D16" s="48"/>
+      <c r="E16" s="47">
         <v>5041955</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25">
+      <c r="F16" s="48"/>
+      <c r="G16" s="47">
         <v>4667583</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="25">
+      <c r="H16" s="48"/>
+      <c r="I16" s="47">
         <v>4832339</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25">
+      <c r="J16" s="48"/>
+      <c r="K16" s="47">
         <v>9375417</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25">
+      <c r="L16" s="48"/>
+      <c r="M16" s="47">
         <v>7916665</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="25">
+      <c r="N16" s="48"/>
+      <c r="O16" s="47">
         <v>6350522</v>
       </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="25">
+      <c r="P16" s="48"/>
+      <c r="Q16" s="47">
         <v>3894412</v>
       </c>
-      <c r="R16" s="26"/>
-      <c r="S16" s="25">
+      <c r="R16" s="48"/>
+      <c r="S16" s="47">
         <v>6944977</v>
       </c>
-      <c r="T16" s="26"/>
-      <c r="U16" s="25">
+      <c r="T16" s="48"/>
+      <c r="U16" s="47">
         <v>5349296</v>
       </c>
-      <c r="V16" s="26"/>
-      <c r="W16" s="25">
+      <c r="V16" s="48"/>
+      <c r="W16" s="47">
         <v>3489058</v>
       </c>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="25">
+      <c r="X16" s="48"/>
+      <c r="Y16" s="47">
         <v>3797776</v>
       </c>
-      <c r="Z16" s="53"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="Z16" s="49"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="60"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="23">
         <f>C16/C3</f>
         <v>2.7063724491809171E-2</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29">
+      <c r="D17" s="25"/>
+      <c r="E17" s="23">
         <f>E16/E3</f>
         <v>4.8890627151620118E-2</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29">
+      <c r="F17" s="25"/>
+      <c r="G17" s="23">
         <f t="shared" ref="G17" si="10">G16/G3</f>
         <v>5.1165116129046048E-2</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="29">
+      <c r="H17" s="25"/>
+      <c r="I17" s="23">
         <f t="shared" ref="I17" si="11">I16/I3</f>
         <v>4.4471441403005733E-2</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="29">
+      <c r="J17" s="25"/>
+      <c r="K17" s="23">
         <f t="shared" ref="K17" si="12">K16/K3</f>
         <v>6.8550510299107997E-2</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="29">
+      <c r="L17" s="25"/>
+      <c r="M17" s="23">
         <f t="shared" ref="M17" si="13">M16/M3</f>
         <v>6.3707677525692216E-2</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="29">
+      <c r="N17" s="25"/>
+      <c r="O17" s="23">
         <f t="shared" ref="O17" si="14">O16/O3</f>
         <v>6.3705511401957987E-2</v>
       </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="29">
+      <c r="P17" s="25"/>
+      <c r="Q17" s="23">
         <f t="shared" ref="Q17" si="15">Q16/Q3</f>
         <v>3.6615198577607713E-2</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="29">
+      <c r="R17" s="25"/>
+      <c r="S17" s="23">
         <f t="shared" ref="S17" si="16">S16/S3</f>
         <v>6.9457902131181512E-2</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="29">
+      <c r="T17" s="25"/>
+      <c r="U17" s="23">
         <f t="shared" ref="U17" si="17">U16/U3</f>
         <v>7.0935870705212595E-2</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="W17" s="29">
+      <c r="V17" s="25"/>
+      <c r="W17" s="23">
         <f t="shared" ref="W17" si="18">W16/W3</f>
         <v>4.216361412129619E-2</v>
       </c>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="29">
+      <c r="X17" s="25"/>
+      <c r="Y17" s="23">
         <f t="shared" ref="Y17" si="19">Y16/Y3</f>
         <v>4.1077405125499199E-2</v>
       </c>
-      <c r="Z17" s="54"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="Z17" s="24"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="47">
         <v>5304558</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25">
+      <c r="D18" s="48"/>
+      <c r="E18" s="47">
         <v>2602136</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="25">
+      <c r="F18" s="48"/>
+      <c r="G18" s="47">
         <v>2305245</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25">
+      <c r="H18" s="48"/>
+      <c r="I18" s="47">
         <v>2489235</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25">
+      <c r="J18" s="48"/>
+      <c r="K18" s="47">
         <v>2886942</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25">
+      <c r="L18" s="48"/>
+      <c r="M18" s="47">
         <v>3030857</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="25">
+      <c r="N18" s="48"/>
+      <c r="O18" s="47">
         <v>2514970</v>
       </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="25">
+      <c r="P18" s="48"/>
+      <c r="Q18" s="47">
         <v>1909747</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="25">
+      <c r="R18" s="48"/>
+      <c r="S18" s="47">
         <v>2585392</v>
       </c>
-      <c r="T18" s="26"/>
-      <c r="U18" s="25">
+      <c r="T18" s="48"/>
+      <c r="U18" s="47">
         <v>1995636</v>
       </c>
-      <c r="V18" s="26"/>
-      <c r="W18" s="25">
+      <c r="V18" s="48"/>
+      <c r="W18" s="47">
         <v>1527656</v>
       </c>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="25">
+      <c r="X18" s="48"/>
+      <c r="Y18" s="47">
         <v>1639373</v>
       </c>
-      <c r="Z18" s="53"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="Z18" s="49"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="23">
         <f>C18/C3</f>
         <v>4.4831082562079384E-2</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29">
+      <c r="D19" s="25"/>
+      <c r="E19" s="23">
         <f>E18/E3</f>
         <v>2.5232288065603157E-2</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29">
+      <c r="F19" s="25"/>
+      <c r="G19" s="23">
         <f t="shared" ref="G19" si="20">G18/G3</f>
         <v>2.5269637011468841E-2</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29">
+      <c r="H19" s="25"/>
+      <c r="I19" s="23">
         <f>I18/I3</f>
         <v>2.2908133812799759E-2</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29">
+      <c r="J19" s="25"/>
+      <c r="K19" s="23">
         <f t="shared" ref="K19" si="21">K18/K3</f>
         <v>2.1108538137975884E-2</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="29">
+      <c r="L19" s="25"/>
+      <c r="M19" s="23">
         <f t="shared" ref="M19" si="22">M18/M3</f>
         <v>2.4390176972561919E-2</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29">
+      <c r="N19" s="25"/>
+      <c r="O19" s="23">
         <f t="shared" ref="O19" si="23">O18/O3</f>
         <v>2.5229020545174438E-2</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="29">
+      <c r="P19" s="25"/>
+      <c r="Q19" s="23">
         <f t="shared" ref="Q19" si="24">Q18/Q3</f>
         <v>1.7955410377225266E-2</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="29">
+      <c r="R19" s="25"/>
+      <c r="S19" s="23">
         <f t="shared" ref="S19" si="25">S18/S3</f>
         <v>2.585694733139356E-2</v>
       </c>
-      <c r="T19" s="30"/>
-      <c r="U19" s="29">
+      <c r="T19" s="25"/>
+      <c r="U19" s="23">
         <f t="shared" ref="U19" si="26">U18/U3</f>
         <v>2.6463702377035714E-2</v>
       </c>
-      <c r="V19" s="30"/>
-      <c r="W19" s="29">
+      <c r="V19" s="25"/>
+      <c r="W19" s="23">
         <f t="shared" ref="W19" si="27">W18/W3</f>
         <v>1.8460999528836394E-2</v>
       </c>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="29">
+      <c r="X19" s="25"/>
+      <c r="Y19" s="23">
         <f t="shared" ref="Y19" si="28">Y18/Y3</f>
         <v>1.7731743228880534E-2</v>
       </c>
-      <c r="Z19" s="54"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="Z19" s="24"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="60"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="47">
         <v>7036792</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25">
+      <c r="D20" s="48"/>
+      <c r="E20" s="47">
         <v>6973727</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="25">
+      <c r="F20" s="48"/>
+      <c r="G20" s="47">
         <v>7013028</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="25">
+      <c r="H20" s="48"/>
+      <c r="I20" s="47">
         <v>7160952</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="25">
+      <c r="J20" s="48"/>
+      <c r="K20" s="47">
         <v>16166923</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="25">
+      <c r="L20" s="48"/>
+      <c r="M20" s="47">
         <v>20393774</v>
       </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="25">
+      <c r="N20" s="48"/>
+      <c r="O20" s="47">
         <v>14647690</v>
       </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="25">
+      <c r="P20" s="48"/>
+      <c r="Q20" s="47">
         <v>5067412</v>
       </c>
-      <c r="R20" s="26"/>
-      <c r="S20" s="25">
+      <c r="R20" s="48"/>
+      <c r="S20" s="47">
         <v>20551506</v>
       </c>
-      <c r="T20" s="26"/>
-      <c r="U20" s="25">
+      <c r="T20" s="48"/>
+      <c r="U20" s="47">
         <v>13638339</v>
       </c>
-      <c r="V20" s="26"/>
-      <c r="W20" s="25">
+      <c r="V20" s="48"/>
+      <c r="W20" s="47">
         <v>3962243</v>
       </c>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="25">
+      <c r="X20" s="48"/>
+      <c r="Y20" s="47">
         <v>4252397</v>
       </c>
-      <c r="Z20" s="53"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="17" t="s">
+      <c r="Z20" s="49"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="23">
         <f>C20/C3</f>
         <v>5.9470931060453994E-2</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29">
+      <c r="D21" s="25"/>
+      <c r="E21" s="23">
         <f>E20/E3</f>
         <v>6.7622556451651453E-2</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29">
+      <c r="F21" s="25"/>
+      <c r="G21" s="23">
         <f>G20/G3</f>
         <v>7.6875417541852287E-2</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29">
+      <c r="H21" s="25"/>
+      <c r="I21" s="23">
         <f t="shared" ref="I21" si="29">I20/I3</f>
         <v>6.5901390042738456E-2</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="29">
+      <c r="J21" s="25"/>
+      <c r="K21" s="23">
         <f t="shared" ref="K21" si="30">K20/K3</f>
         <v>0.11820816307332101</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="29">
+      <c r="L21" s="25"/>
+      <c r="M21" s="23">
         <f t="shared" ref="M21" si="31">M20/M3</f>
         <v>0.16411455802712963</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="29">
+      <c r="N21" s="25"/>
+      <c r="O21" s="23">
         <f t="shared" ref="O21" si="32">O20/O3</f>
         <v>0.1469388787736419</v>
       </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="29">
+      <c r="P21" s="25"/>
+      <c r="Q21" s="23">
         <f t="shared" ref="Q21" si="33">Q20/Q3</f>
         <v>4.7643725587984083E-2</v>
       </c>
-      <c r="R21" s="30"/>
-      <c r="S21" s="29">
+      <c r="R21" s="25"/>
+      <c r="S21" s="23">
         <f t="shared" ref="S21" si="34">S20/S3</f>
         <v>0.20553912452069889</v>
       </c>
-      <c r="T21" s="30"/>
-      <c r="U21" s="29">
+      <c r="T21" s="25"/>
+      <c r="U21" s="23">
         <f t="shared" ref="U21" si="35">U20/U3</f>
         <v>0.18085509793024324</v>
       </c>
-      <c r="V21" s="30"/>
-      <c r="W21" s="29">
+      <c r="V21" s="25"/>
+      <c r="W21" s="23">
         <f t="shared" ref="W21" si="36">W20/W3</f>
         <v>4.788183082849496E-2</v>
       </c>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="29">
+      <c r="X21" s="25"/>
+      <c r="Y21" s="23">
         <f t="shared" ref="Y21" si="37">Y20/Y3</f>
         <v>4.5994664857394806E-2</v>
       </c>
-      <c r="Z21" s="54"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="28" t="s">
+      <c r="Z21" s="24"/>
+    </row>
+    <row r="22" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="55" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="55" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="55" t="s">
+      <c r="H22" s="43"/>
+      <c r="I22" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="55" t="s">
+      <c r="J22" s="43"/>
+      <c r="K22" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="55" t="s">
+      <c r="L22" s="43"/>
+      <c r="M22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="56"/>
-      <c r="O22" s="55" t="s">
+      <c r="N22" s="43"/>
+      <c r="O22" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="55" t="s">
+      <c r="P22" s="43"/>
+      <c r="Q22" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="56"/>
-      <c r="S22" s="55" t="s">
+      <c r="R22" s="43"/>
+      <c r="S22" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="T22" s="56"/>
-      <c r="U22" s="55" t="s">
+      <c r="T22" s="43"/>
+      <c r="U22" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="V22" s="56"/>
-      <c r="W22" s="55" t="s">
+      <c r="V22" s="43"/>
+      <c r="W22" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="55" t="s">
+      <c r="X22" s="43"/>
+      <c r="Y22" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z22" s="57"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="Z22" s="44"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="40">
         <v>102779602</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14">
+      <c r="D23" s="41"/>
+      <c r="E23" s="40">
         <v>88509413</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14">
+      <c r="F23" s="41"/>
+      <c r="G23" s="40">
         <v>77240029</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="14">
+      <c r="H23" s="41"/>
+      <c r="I23" s="40">
         <v>94179097</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14">
+      <c r="J23" s="41"/>
+      <c r="K23" s="40">
         <v>108337271</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="14">
+      <c r="L23" s="41"/>
+      <c r="M23" s="40">
         <v>92924182</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="14">
+      <c r="N23" s="41"/>
+      <c r="O23" s="40">
         <v>76172416</v>
       </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="14">
+      <c r="P23" s="41"/>
+      <c r="Q23" s="40">
         <v>95488961</v>
       </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="14">
+      <c r="R23" s="41"/>
+      <c r="S23" s="40">
         <v>69906417</v>
       </c>
-      <c r="T23" s="15"/>
-      <c r="U23" s="14">
+      <c r="T23" s="41"/>
+      <c r="U23" s="40">
         <v>54427039</v>
       </c>
-      <c r="V23" s="15"/>
-      <c r="W23" s="14">
+      <c r="V23" s="41"/>
+      <c r="W23" s="40">
         <v>73771492</v>
       </c>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="14">
+      <c r="X23" s="41"/>
+      <c r="Y23" s="40">
         <v>82764590</v>
       </c>
-      <c r="Z23" s="16"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="Z23" s="53"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="55"/>
       <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="23">
         <f>C23/C3</f>
         <v>0.86863426188565751</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29">
+      <c r="D24" s="25"/>
+      <c r="E24" s="23">
         <f t="shared" ref="E24" si="38">E23/E3</f>
         <v>0.85825452833112525</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="29">
+      <c r="F24" s="25"/>
+      <c r="G24" s="23">
         <f t="shared" ref="G24" si="39">G23/G3</f>
         <v>0.84668982931763281</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29">
+      <c r="H24" s="25"/>
+      <c r="I24" s="23">
         <f t="shared" ref="I24" si="40">I23/I3</f>
         <v>0.86671903474145606</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="29">
+      <c r="J24" s="25"/>
+      <c r="K24" s="23">
         <f t="shared" ref="K24" si="41">K23/K3</f>
         <v>0.79213278848959512</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="29">
+      <c r="L24" s="25"/>
+      <c r="M24" s="23">
         <f t="shared" ref="M24" si="42">M23/M3</f>
         <v>0.74778758747461627</v>
       </c>
-      <c r="N24" s="30"/>
-      <c r="O24" s="29">
+      <c r="N24" s="25"/>
+      <c r="O24" s="23">
         <f t="shared" ref="O24" si="43">O23/O3</f>
         <v>0.76412658927922572</v>
       </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="29">
+      <c r="P24" s="25"/>
+      <c r="Q24" s="23">
         <f t="shared" ref="Q24" si="44">Q23/Q3</f>
         <v>0.89778566545718297</v>
       </c>
-      <c r="R24" s="30"/>
-      <c r="S24" s="29">
+      <c r="R24" s="25"/>
+      <c r="S24" s="23">
         <f t="shared" ref="S24" si="45">S23/S3</f>
         <v>0.69914602601672604</v>
       </c>
-      <c r="T24" s="30"/>
-      <c r="U24" s="29">
+      <c r="T24" s="25"/>
+      <c r="U24" s="23">
         <f t="shared" ref="U24" si="46">U23/U3</f>
         <v>0.72174532898750843</v>
       </c>
-      <c r="V24" s="30"/>
-      <c r="W24" s="29">
+      <c r="V24" s="25"/>
+      <c r="W24" s="23">
         <f t="shared" ref="W24" si="47">W23/W3</f>
         <v>0.89149355552137244</v>
       </c>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="29">
+      <c r="X24" s="25"/>
+      <c r="Y24" s="23">
         <f t="shared" ref="Y24" si="48">Y23/Y3</f>
         <v>0.89519618678822543</v>
       </c>
-      <c r="Z24" s="54"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="Z24" s="24"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="55"/>
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
@@ -3640,8 +3753,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="55"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -3718,8 +3831,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -3796,8 +3909,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -3874,8 +3987,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -3952,8 +4065,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
@@ -4030,8 +4143,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="55"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4108,8 +4221,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="55"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
@@ -4186,8 +4299,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="55"/>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
@@ -4264,8 +4377,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
@@ -4342,907 +4455,1150 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="60" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="55"/>
+      <c r="B36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="61" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+    </row>
+    <row r="37" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="45">
         <v>102779602</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="14">
+      <c r="D38" s="46"/>
+      <c r="E38" s="40">
         <v>88509413</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14">
+      <c r="F38" s="41"/>
+      <c r="G38" s="40">
         <v>77240029</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="14">
+      <c r="H38" s="41"/>
+      <c r="I38" s="40">
         <v>94179097</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="14">
+      <c r="J38" s="41"/>
+      <c r="K38" s="40">
         <v>108337271</v>
       </c>
-      <c r="L38" s="15"/>
-      <c r="M38" s="14">
+      <c r="L38" s="41"/>
+      <c r="M38" s="40">
         <v>92924182</v>
       </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="14">
+      <c r="N38" s="41"/>
+      <c r="O38" s="40">
         <v>76172416</v>
       </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="13">
+      <c r="P38" s="41"/>
+      <c r="Q38" s="32">
         <v>95488961</v>
       </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13">
+      <c r="R38" s="32"/>
+      <c r="S38" s="32">
         <v>69906417</v>
       </c>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13">
+      <c r="T38" s="32"/>
+      <c r="U38" s="32">
         <v>54427039</v>
       </c>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13">
+      <c r="V38" s="32"/>
+      <c r="W38" s="32">
         <v>73771492</v>
       </c>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13">
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32">
         <v>82764590</v>
       </c>
-      <c r="Z38" s="39"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="Z38" s="33"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="38">
         <v>83997778</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="31">
+      <c r="D39" s="39"/>
+      <c r="E39" s="38">
         <v>72886507</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="31">
+      <c r="F39" s="39"/>
+      <c r="G39" s="38">
         <v>63080607</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="31">
+      <c r="H39" s="39"/>
+      <c r="I39" s="38">
         <v>78266028</v>
       </c>
-      <c r="J39" s="32"/>
-      <c r="K39" s="31">
+      <c r="J39" s="39"/>
+      <c r="K39" s="38">
         <v>90382298</v>
       </c>
-      <c r="L39" s="32"/>
-      <c r="M39" s="31">
+      <c r="L39" s="39"/>
+      <c r="M39" s="38">
         <v>78565604</v>
       </c>
-      <c r="N39" s="32"/>
-      <c r="O39" s="31">
+      <c r="N39" s="39"/>
+      <c r="O39" s="38">
         <v>62830592</v>
       </c>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="18">
+      <c r="P39" s="39"/>
+      <c r="Q39" s="30">
         <v>82902484</v>
       </c>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18">
+      <c r="R39" s="30"/>
+      <c r="S39" s="30">
         <v>56448204</v>
       </c>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18">
+      <c r="T39" s="30"/>
+      <c r="U39" s="30">
         <v>43681618</v>
       </c>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18">
+      <c r="V39" s="30"/>
+      <c r="W39" s="30">
         <v>59617363</v>
       </c>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18">
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30">
         <v>67555737</v>
       </c>
-      <c r="Z39" s="40"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="Z39" s="31"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="36">
         <f>100*C39/C38</f>
         <v>81.726117211467695</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="34">
+      <c r="D40" s="37"/>
+      <c r="E40" s="36">
         <f t="shared" ref="E40:I40" si="49">100*E39/E38</f>
         <v>82.348876271498938</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="34">
+      <c r="F40" s="37"/>
+      <c r="G40" s="36">
         <f t="shared" si="49"/>
         <v>81.668284976951526</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="34">
+      <c r="H40" s="37"/>
+      <c r="I40" s="36">
         <f t="shared" si="49"/>
         <v>83.103396075245868</v>
       </c>
-      <c r="J40" s="35"/>
-      <c r="K40" s="34">
+      <c r="J40" s="37"/>
+      <c r="K40" s="36">
         <f>100*K39/K38</f>
         <v>83.426781167489438</v>
       </c>
-      <c r="L40" s="35"/>
-      <c r="M40" s="34">
+      <c r="L40" s="37"/>
+      <c r="M40" s="36">
         <f t="shared" ref="M40" si="50">100*M39/M38</f>
         <v>84.548071674174111</v>
       </c>
-      <c r="N40" s="35"/>
-      <c r="O40" s="34">
+      <c r="N40" s="37"/>
+      <c r="O40" s="36">
         <f t="shared" ref="O40" si="51">100*O39/O38</f>
         <v>82.484704174277468</v>
       </c>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="33">
+      <c r="P40" s="37"/>
+      <c r="Q40" s="28">
         <f t="shared" ref="Q40" si="52">100*Q39/Q38</f>
         <v>86.818919309426775</v>
       </c>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33">
+      <c r="R40" s="28"/>
+      <c r="S40" s="28">
         <f t="shared" ref="S40" si="53">100*S39/S38</f>
         <v>80.74824375564836</v>
       </c>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33">
+      <c r="T40" s="28"/>
+      <c r="U40" s="28">
         <f t="shared" ref="U40" si="54">100*U39/U38</f>
         <v>80.257200837252967</v>
       </c>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33">
+      <c r="V40" s="28"/>
+      <c r="W40" s="28">
         <f t="shared" ref="W40" si="55">100*W39/W38</f>
         <v>80.813551934126536</v>
       </c>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33">
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28">
         <f t="shared" ref="Y40" si="56">100*Y39/Y38</f>
         <v>81.623961406683705</v>
       </c>
-      <c r="Z40" s="41"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="Z40" s="29"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="36">
         <v>100.73</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="34">
+      <c r="D41" s="37"/>
+      <c r="E41" s="36">
         <v>101.11</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="34">
+      <c r="F41" s="37"/>
+      <c r="G41" s="36">
         <v>101.1</v>
       </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="34">
+      <c r="H41" s="37"/>
+      <c r="I41" s="36">
         <v>101.14</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="34">
+      <c r="J41" s="37"/>
+      <c r="K41" s="36">
         <v>100.6</v>
       </c>
-      <c r="L41" s="35"/>
-      <c r="M41" s="34">
+      <c r="L41" s="37"/>
+      <c r="M41" s="36">
         <v>100.51</v>
       </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="34">
+      <c r="N41" s="37"/>
+      <c r="O41" s="36">
         <v>100.51</v>
       </c>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="33">
+      <c r="P41" s="37"/>
+      <c r="Q41" s="28">
         <v>100.81</v>
       </c>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33">
+      <c r="R41" s="28"/>
+      <c r="S41" s="28">
         <v>100.41</v>
       </c>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33">
+      <c r="T41" s="28"/>
+      <c r="U41" s="28">
         <v>100.33</v>
       </c>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33">
+      <c r="V41" s="28"/>
+      <c r="W41" s="28">
         <v>101.18</v>
       </c>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33">
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28">
         <v>101.22</v>
       </c>
-      <c r="Z41" s="41"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="Z41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
       <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="38">
         <v>8669309</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="31">
+      <c r="D42" s="39"/>
+      <c r="E42" s="38">
         <v>8001254</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31">
+      <c r="F42" s="39"/>
+      <c r="G42" s="38">
         <v>10614183</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="31">
+      <c r="H42" s="39"/>
+      <c r="I42" s="38">
         <v>11755786</v>
       </c>
-      <c r="J42" s="32"/>
-      <c r="K42" s="31">
+      <c r="J42" s="39"/>
+      <c r="K42" s="38">
         <v>10864763</v>
       </c>
-      <c r="L42" s="32"/>
-      <c r="M42" s="31">
+      <c r="L42" s="39"/>
+      <c r="M42" s="38">
         <v>8361834</v>
       </c>
-      <c r="N42" s="32"/>
-      <c r="O42" s="31">
+      <c r="N42" s="39"/>
+      <c r="O42" s="38">
         <v>6866426</v>
       </c>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="18">
+      <c r="P42" s="39"/>
+      <c r="Q42" s="30">
         <v>7992131</v>
       </c>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18">
+      <c r="R42" s="30"/>
+      <c r="S42" s="30">
         <v>6183251</v>
       </c>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18">
+      <c r="T42" s="30"/>
+      <c r="U42" s="30">
         <v>4335350</v>
       </c>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18">
+      <c r="V42" s="30"/>
+      <c r="W42" s="30">
         <v>7285589</v>
       </c>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18">
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30">
         <v>8582074</v>
       </c>
-      <c r="Z42" s="40"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="Z42" s="31"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="55"/>
       <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="38">
         <v>12297468</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="31">
+      <c r="D43" s="39"/>
+      <c r="E43" s="38">
         <v>10128496</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="31">
+      <c r="F43" s="39"/>
+      <c r="G43" s="38">
         <v>10020457</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="31">
+      <c r="H43" s="39"/>
+      <c r="I43" s="38">
         <v>10617795</v>
       </c>
-      <c r="J43" s="32"/>
-      <c r="K43" s="31">
+      <c r="J43" s="39"/>
+      <c r="K43" s="38">
         <v>11940058</v>
       </c>
-      <c r="L43" s="32"/>
-      <c r="M43" s="31">
+      <c r="L43" s="39"/>
+      <c r="M43" s="38">
         <v>8949196</v>
       </c>
-      <c r="N43" s="32"/>
-      <c r="O43" s="31">
+      <c r="N43" s="39"/>
+      <c r="O43" s="38">
         <v>8840727</v>
       </c>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="18">
+      <c r="P43" s="39"/>
+      <c r="Q43" s="30">
         <v>7971455</v>
       </c>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18">
+      <c r="R43" s="30"/>
+      <c r="S43" s="30">
         <v>8001379</v>
       </c>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18">
+      <c r="T43" s="30"/>
+      <c r="U43" s="30">
         <v>5937146</v>
       </c>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18">
+      <c r="V43" s="30"/>
+      <c r="W43" s="30">
         <v>8991847</v>
       </c>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18">
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30">
         <v>10165811</v>
       </c>
-      <c r="Z43" s="40"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="Z43" s="31"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="55"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="36">
         <f>100*C43/C38</f>
         <v>11.96489163287478</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="34">
+      <c r="D44" s="37"/>
+      <c r="E44" s="36">
         <f t="shared" ref="E44:I44" si="57">100*E43/E38</f>
         <v>11.443411109279417</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="34">
+      <c r="F44" s="37"/>
+      <c r="G44" s="36">
         <f t="shared" si="57"/>
         <v>12.973139872850126</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="34">
+      <c r="H44" s="37"/>
+      <c r="I44" s="36">
         <f t="shared" si="57"/>
         <v>11.274046299254707</v>
       </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="34">
+      <c r="J44" s="37"/>
+      <c r="K44" s="36">
         <f>100*K43/K38</f>
         <v>11.021191405125942</v>
       </c>
-      <c r="L44" s="35"/>
-      <c r="M44" s="34">
+      <c r="L44" s="37"/>
+      <c r="M44" s="36">
         <f>100*M43/M38</f>
         <v>9.6306427534654002</v>
       </c>
-      <c r="N44" s="35"/>
-      <c r="O44" s="34">
+      <c r="N44" s="37"/>
+      <c r="O44" s="36">
         <f t="shared" ref="O44" si="58">100*O43/O38</f>
         <v>11.606205322409624</v>
       </c>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="33">
+      <c r="P44" s="37"/>
+      <c r="Q44" s="28">
         <f>100*Q43/Q38</f>
         <v>8.3480382617211646</v>
       </c>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33">
+      <c r="R44" s="28"/>
+      <c r="S44" s="28">
         <f>100*S43/S38</f>
         <v>11.44584337658158</v>
       </c>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33">
+      <c r="T44" s="28"/>
+      <c r="U44" s="28">
         <f t="shared" ref="U44" si="59">100*U43/U38</f>
         <v>10.908449383035517</v>
       </c>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33">
+      <c r="V44" s="28"/>
+      <c r="W44" s="28">
         <f>100*W43/W38</f>
         <v>12.188782897328416</v>
       </c>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33">
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28">
         <f>100*Y43/Y38</f>
         <v>12.282802343369308</v>
       </c>
-      <c r="Z44" s="41"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="Z44" s="29"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="55"/>
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="38">
         <v>1852567</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="31">
+      <c r="D45" s="39"/>
+      <c r="E45" s="38">
         <v>1405520</v>
       </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="31">
+      <c r="F45" s="39"/>
+      <c r="G45" s="38">
         <v>1242987</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="31">
+      <c r="H45" s="39"/>
+      <c r="I45" s="38">
         <v>1061581</v>
       </c>
-      <c r="J45" s="32"/>
-      <c r="K45" s="31">
+      <c r="J45" s="39"/>
+      <c r="K45" s="38">
         <v>1736909</v>
       </c>
-      <c r="L45" s="32"/>
-      <c r="M45" s="31">
+      <c r="L45" s="39"/>
+      <c r="M45" s="38">
         <v>1362437</v>
       </c>
-      <c r="N45" s="32"/>
-      <c r="O45" s="31">
+      <c r="N45" s="39"/>
+      <c r="O45" s="38">
         <v>1374511</v>
       </c>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="18">
+      <c r="P45" s="39"/>
+      <c r="Q45" s="30">
         <v>846306</v>
       </c>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18">
+      <c r="R45" s="30"/>
+      <c r="S45" s="30">
         <v>1010599</v>
       </c>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18">
+      <c r="T45" s="30"/>
+      <c r="U45" s="30">
         <v>958126</v>
       </c>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18">
+      <c r="V45" s="30"/>
+      <c r="W45" s="30">
         <v>703260</v>
       </c>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18">
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30">
         <v>891102</v>
       </c>
-      <c r="Z45" s="40"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="Z45" s="31"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="55"/>
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="36">
         <f>100*C45/C38</f>
         <v>1.8024656293181598</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="34">
+      <c r="D46" s="37"/>
+      <c r="E46" s="36">
         <f t="shared" ref="E46:I46" si="60">100*E45/E38</f>
         <v>1.5879892910373272</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="34">
+      <c r="F46" s="37"/>
+      <c r="G46" s="36">
         <f t="shared" si="60"/>
         <v>1.6092523735328996</v>
       </c>
-      <c r="H46" s="35"/>
-      <c r="I46" s="34">
+      <c r="H46" s="37"/>
+      <c r="I46" s="36">
         <f t="shared" si="60"/>
         <v>1.1271938612874999</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="34">
+      <c r="J46" s="37"/>
+      <c r="K46" s="36">
         <f t="shared" ref="K46:Y46" si="61">100*K45/K38</f>
         <v>1.6032423412253018</v>
       </c>
-      <c r="L46" s="35"/>
-      <c r="M46" s="34">
+      <c r="L46" s="37"/>
+      <c r="M46" s="36">
         <f t="shared" si="61"/>
         <v>1.4661813218866968</v>
       </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="34">
+      <c r="N46" s="37"/>
+      <c r="O46" s="36">
         <f t="shared" si="61"/>
         <v>1.8044734198794483</v>
       </c>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="33">
+      <c r="P46" s="37"/>
+      <c r="Q46" s="28">
         <f t="shared" si="61"/>
         <v>0.88628674051652945</v>
       </c>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33">
+      <c r="R46" s="28"/>
+      <c r="S46" s="28">
         <f t="shared" si="61"/>
         <v>1.4456455406661737</v>
       </c>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33">
+      <c r="T46" s="28"/>
+      <c r="U46" s="28">
         <f t="shared" si="61"/>
         <v>1.7603860463546437</v>
       </c>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33">
+      <c r="V46" s="28"/>
+      <c r="W46" s="28">
         <f t="shared" si="61"/>
         <v>0.95329507501352961</v>
       </c>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33">
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28">
         <f t="shared" si="61"/>
         <v>1.076670590647522</v>
       </c>
-      <c r="Z46" s="41"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="Z46" s="29"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="55"/>
       <c r="B47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="38">
         <v>4196475</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="31">
+      <c r="D47" s="39"/>
+      <c r="E47" s="38">
         <v>3721320</v>
       </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="31">
+      <c r="F47" s="39"/>
+      <c r="G47" s="38">
         <v>2638252</v>
       </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="31">
+      <c r="H47" s="39"/>
+      <c r="I47" s="38">
         <v>3853491</v>
       </c>
-      <c r="J47" s="32"/>
-      <c r="K47" s="31">
+      <c r="J47" s="39"/>
+      <c r="K47" s="38">
         <v>3805412</v>
       </c>
-      <c r="L47" s="32"/>
-      <c r="M47" s="31">
+      <c r="L47" s="39"/>
+      <c r="M47" s="38">
         <v>3593090</v>
       </c>
-      <c r="N47" s="32"/>
-      <c r="O47" s="31">
+      <c r="N47" s="39"/>
+      <c r="O47" s="38">
         <v>2789471</v>
       </c>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="18">
+      <c r="P47" s="39"/>
+      <c r="Q47" s="30">
         <v>3298751</v>
       </c>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18">
+      <c r="R47" s="30"/>
+      <c r="S47" s="30">
         <v>4070723</v>
       </c>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18">
+      <c r="T47" s="30"/>
+      <c r="U47" s="30">
         <v>3483126</v>
       </c>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18">
+      <c r="V47" s="30"/>
+      <c r="W47" s="30">
         <v>4140373</v>
       </c>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18">
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30">
         <v>3746739</v>
       </c>
-      <c r="Z47" s="40"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="Z47" s="31"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="55"/>
       <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="36">
         <f>100*C47/C38</f>
         <v>4.0829842870961883</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="34">
+      <c r="D48" s="37"/>
+      <c r="E48" s="36">
         <f t="shared" ref="E48:I48" si="62">100*E47/E38</f>
         <v>4.2044341656632609</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="34">
+      <c r="F48" s="37"/>
+      <c r="G48" s="36">
         <f t="shared" si="62"/>
         <v>3.4156538185660184</v>
       </c>
-      <c r="H48" s="35"/>
-      <c r="I48" s="34">
+      <c r="H48" s="37"/>
+      <c r="I48" s="36">
         <f t="shared" si="62"/>
         <v>4.0916627178958827</v>
       </c>
-      <c r="J48" s="35"/>
-      <c r="K48" s="34">
+      <c r="J48" s="37"/>
+      <c r="K48" s="36">
         <f>100*K47/K38</f>
         <v>3.512560326538039</v>
       </c>
-      <c r="L48" s="35"/>
-      <c r="M48" s="34">
+      <c r="L48" s="37"/>
+      <c r="M48" s="36">
         <f>100*M47/M38</f>
         <v>3.866689942990297</v>
       </c>
-      <c r="N48" s="35"/>
-      <c r="O48" s="34">
+      <c r="N48" s="37"/>
+      <c r="O48" s="36">
         <f>100*O47/O38</f>
         <v>3.6620487395332191</v>
       </c>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="33">
+      <c r="P48" s="37"/>
+      <c r="Q48" s="28">
         <f>100*Q47/Q38</f>
         <v>3.4545888503279452</v>
       </c>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33">
+      <c r="R48" s="28"/>
+      <c r="S48" s="28">
         <f t="shared" ref="S48" si="63">100*S47/S38</f>
         <v>5.8231034784689362</v>
       </c>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33">
+      <c r="T48" s="28"/>
+      <c r="U48" s="28">
         <f t="shared" ref="U48" si="64">100*U47/U38</f>
         <v>6.399624274985821</v>
       </c>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33">
+      <c r="V48" s="28"/>
+      <c r="W48" s="28">
         <f>100*W47/W38</f>
         <v>5.6124295276554799</v>
       </c>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33">
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28">
         <f>100*Y47/Y38</f>
         <v>4.5269830974816649</v>
       </c>
-      <c r="Z48" s="41"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="Z48" s="29"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="55"/>
       <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="38">
         <v>435314</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="31">
+      <c r="D49" s="39"/>
+      <c r="E49" s="38">
         <v>367570</v>
       </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="31">
+      <c r="F49" s="39"/>
+      <c r="G49" s="38">
         <v>257726</v>
       </c>
-      <c r="H49" s="32"/>
-      <c r="I49" s="31">
+      <c r="H49" s="39"/>
+      <c r="I49" s="38">
         <v>380202</v>
       </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="31">
+      <c r="J49" s="39"/>
+      <c r="K49" s="38">
         <v>472594</v>
       </c>
-      <c r="L49" s="32"/>
-      <c r="M49" s="31">
+      <c r="L49" s="39"/>
+      <c r="M49" s="38">
         <v>453855</v>
       </c>
-      <c r="N49" s="32"/>
-      <c r="O49" s="31">
+      <c r="N49" s="39"/>
+      <c r="O49" s="38">
         <v>337115</v>
       </c>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="18">
+      <c r="P49" s="39"/>
+      <c r="Q49" s="30">
         <v>469965</v>
       </c>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18">
+      <c r="R49" s="30"/>
+      <c r="S49" s="30">
         <v>375512</v>
       </c>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18">
+      <c r="T49" s="30"/>
+      <c r="U49" s="30">
         <v>367023</v>
       </c>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18">
+      <c r="V49" s="30"/>
+      <c r="W49" s="30">
         <v>318649</v>
       </c>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18">
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30">
         <v>405201</v>
       </c>
-      <c r="Z49" s="40"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="42" t="s">
+      <c r="Z49" s="31"/>
+    </row>
+    <row r="50" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="34">
         <f>100*C49/C38</f>
         <v>0.423541239243172</v>
       </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="36">
+      <c r="D50" s="35"/>
+      <c r="E50" s="34">
         <f t="shared" ref="E50:I50" si="65">100*E49/E38</f>
         <v>0.41528916252105297</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="36">
+      <c r="F50" s="35"/>
+      <c r="G50" s="34">
         <f t="shared" si="65"/>
         <v>0.33366895809943314</v>
       </c>
-      <c r="H50" s="37"/>
-      <c r="I50" s="36">
+      <c r="H50" s="35"/>
+      <c r="I50" s="34">
         <f t="shared" si="65"/>
         <v>0.40370104631604187</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="36">
+      <c r="J50" s="35"/>
+      <c r="K50" s="34">
         <f t="shared" ref="K50" si="66">100*K49/K38</f>
         <v>0.43622475962127566</v>
       </c>
-      <c r="L50" s="37"/>
-      <c r="M50" s="36">
+      <c r="L50" s="35"/>
+      <c r="M50" s="34">
         <f t="shared" ref="M50" si="67">100*M49/M38</f>
         <v>0.48841430748349229</v>
       </c>
-      <c r="N50" s="37"/>
-      <c r="O50" s="36">
+      <c r="N50" s="35"/>
+      <c r="O50" s="34">
         <f t="shared" ref="O50" si="68">100*O49/O38</f>
         <v>0.44256834390023814</v>
       </c>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="43">
+      <c r="P50" s="35"/>
+      <c r="Q50" s="26">
         <f t="shared" ref="Q50" si="69">100*Q49/Q38</f>
         <v>0.49216683800758915</v>
       </c>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43">
+      <c r="R50" s="26"/>
+      <c r="S50" s="26">
         <f t="shared" ref="S50" si="70">100*S49/S38</f>
         <v>0.53716384863495437</v>
       </c>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43">
+      <c r="T50" s="26"/>
+      <c r="U50" s="26">
         <f t="shared" ref="U50" si="71">100*U49/U38</f>
         <v>0.67433945837104969</v>
       </c>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43">
+      <c r="V50" s="26"/>
+      <c r="W50" s="26">
         <f t="shared" ref="W50" si="72">100*W49/W38</f>
         <v>0.43194056587604329</v>
       </c>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43">
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26">
         <f t="shared" ref="Y50" si="73">100*Y49/Y38</f>
         <v>0.48958256181780158</v>
       </c>
-      <c r="Z50" s="44"/>
+      <c r="Z50" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="353">
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="A38:A50"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
     <mergeCell ref="Q50:R50"/>
     <mergeCell ref="S50:T50"/>
     <mergeCell ref="U50:V50"/>
@@ -5267,292 +5623,49 @@
     <mergeCell ref="S46:T46"/>
     <mergeCell ref="U46:V46"/>
     <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A38:A50"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:Z13">
@@ -5580,4 +5693,1056 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD76C1-4C28-4F4D-A52F-FA36D3E6CF23}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="64">
+        <v>84.64</v>
+      </c>
+      <c r="C2" s="65">
+        <v>5488438</v>
+      </c>
+      <c r="D2" s="65">
+        <v>5488438</v>
+      </c>
+      <c r="E2" s="65">
+        <v>41468621</v>
+      </c>
+      <c r="F2" s="65">
+        <v>6.19</v>
+      </c>
+      <c r="G2" s="65">
+        <v>4.8310000000000004</v>
+      </c>
+      <c r="H2" s="65">
+        <v>0</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="64">
+        <v>15.36</v>
+      </c>
+      <c r="C3" s="65">
+        <v>995918</v>
+      </c>
+      <c r="D3" s="65">
+        <v>33659</v>
+      </c>
+      <c r="E3" s="65">
+        <v>4542</v>
+      </c>
+      <c r="F3" s="65">
+        <v>457</v>
+      </c>
+      <c r="G3" s="66">
+        <v>6.8560000000000001E-6</v>
+      </c>
+      <c r="H3" s="65">
+        <v>1</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="64">
+        <v>13.17</v>
+      </c>
+      <c r="C4" s="65">
+        <v>854150</v>
+      </c>
+      <c r="D4" s="65">
+        <v>1970</v>
+      </c>
+      <c r="E4" s="65">
+        <v>3464</v>
+      </c>
+      <c r="F4" s="65">
+        <v>521</v>
+      </c>
+      <c r="G4" s="66">
+        <v>5.3020000000000002E-6</v>
+      </c>
+      <c r="H4" s="65">
+        <v>131567</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="64">
+        <v>7.9770000000000003</v>
+      </c>
+      <c r="C5" s="65">
+        <v>517286</v>
+      </c>
+      <c r="D5" s="65">
+        <v>8081</v>
+      </c>
+      <c r="E5" s="65">
+        <v>2738</v>
+      </c>
+      <c r="F5" s="65">
+        <v>409</v>
+      </c>
+      <c r="G5" s="66">
+        <v>4.335E-6</v>
+      </c>
+      <c r="H5" s="65">
+        <v>2</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="64">
+        <v>7.7389999999999999</v>
+      </c>
+      <c r="C6" s="65">
+        <v>501801</v>
+      </c>
+      <c r="D6" s="65">
+        <v>32</v>
+      </c>
+      <c r="E6" s="65">
+        <v>740</v>
+      </c>
+      <c r="F6" s="66">
+        <v>1480</v>
+      </c>
+      <c r="G6" s="66">
+        <v>3.0450000000000001E-6</v>
+      </c>
+      <c r="H6" s="65">
+        <v>1783272</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="64">
+        <v>7.7009999999999996</v>
+      </c>
+      <c r="C7" s="65">
+        <v>499354</v>
+      </c>
+      <c r="D7" s="65">
+        <v>2</v>
+      </c>
+      <c r="E7" s="65">
+        <v>521</v>
+      </c>
+      <c r="F7" s="66">
+        <v>2090</v>
+      </c>
+      <c r="G7" s="66">
+        <v>5.587E-6</v>
+      </c>
+      <c r="H7" s="65">
+        <v>1239</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="64">
+        <v>7.6989999999999998</v>
+      </c>
+      <c r="C8" s="65">
+        <v>499227</v>
+      </c>
+      <c r="D8" s="65">
+        <v>111</v>
+      </c>
+      <c r="E8" s="65">
+        <v>503</v>
+      </c>
+      <c r="F8" s="66">
+        <v>2160</v>
+      </c>
+      <c r="G8" s="66">
+        <v>7.6699999999999994E-6</v>
+      </c>
+      <c r="H8" s="65">
+        <v>91061</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="68"/>
+      <c r="B9" s="64">
+        <v>7.6959999999999997</v>
+      </c>
+      <c r="C9" s="65">
+        <v>499060</v>
+      </c>
+      <c r="D9" s="65">
+        <v>7</v>
+      </c>
+      <c r="E9" s="65">
+        <v>473</v>
+      </c>
+      <c r="F9" s="66">
+        <v>2300</v>
+      </c>
+      <c r="G9" s="66">
+        <v>1.012E-5</v>
+      </c>
+      <c r="H9" s="65">
+        <v>1385</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
+      <c r="B10" s="64">
+        <v>7.694</v>
+      </c>
+      <c r="C10" s="65">
+        <v>498930</v>
+      </c>
+      <c r="D10" s="65">
+        <v>1</v>
+      </c>
+      <c r="E10" s="65">
+        <v>444</v>
+      </c>
+      <c r="F10" s="66">
+        <v>2450</v>
+      </c>
+      <c r="G10" s="66">
+        <v>1.931E-5</v>
+      </c>
+      <c r="H10" s="65">
+        <v>186817</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="68"/>
+      <c r="B11" s="64">
+        <v>7.694</v>
+      </c>
+      <c r="C11" s="65">
+        <v>498928</v>
+      </c>
+      <c r="D11" s="65">
+        <v>498091</v>
+      </c>
+      <c r="E11" s="65">
+        <v>440</v>
+      </c>
+      <c r="F11" s="66">
+        <v>2470</v>
+      </c>
+      <c r="G11" s="66">
+        <v>2.5469999999999998E-5</v>
+      </c>
+      <c r="H11" s="65">
+        <v>1386</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="68"/>
+      <c r="B13" s="64">
+        <v>100</v>
+      </c>
+      <c r="C13" s="65">
+        <v>4753178</v>
+      </c>
+      <c r="D13" s="65">
+        <v>4753178</v>
+      </c>
+      <c r="E13" s="65">
+        <v>44443646</v>
+      </c>
+      <c r="F13" s="65">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G13" s="65">
+        <v>5.1779999999999999</v>
+      </c>
+      <c r="H13" s="65">
+        <v>0</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="68"/>
+      <c r="B15" s="64">
+        <v>100</v>
+      </c>
+      <c r="C15" s="65">
+        <v>3634665</v>
+      </c>
+      <c r="D15" s="65">
+        <v>3634665</v>
+      </c>
+      <c r="E15" s="65">
+        <v>32052556</v>
+      </c>
+      <c r="F15" s="65">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G15" s="65">
+        <v>3.734</v>
+      </c>
+      <c r="H15" s="65">
+        <v>0</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="64">
+        <v>100</v>
+      </c>
+      <c r="C17" s="65">
+        <v>4644190</v>
+      </c>
+      <c r="D17" s="65">
+        <v>4644190</v>
+      </c>
+      <c r="E17" s="65">
+        <v>44626315</v>
+      </c>
+      <c r="F17" s="65">
+        <v>4.76</v>
+      </c>
+      <c r="G17" s="65">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="H17" s="65">
+        <v>0</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="68"/>
+      <c r="B19" s="64">
+        <v>100</v>
+      </c>
+      <c r="C19" s="65">
+        <v>5165665</v>
+      </c>
+      <c r="D19" s="65">
+        <v>5165665</v>
+      </c>
+      <c r="E19" s="65">
+        <v>30961750</v>
+      </c>
+      <c r="F19" s="65">
+        <v>7.68</v>
+      </c>
+      <c r="G19" s="65">
+        <v>3.6070000000000002</v>
+      </c>
+      <c r="H19" s="65">
+        <v>0</v>
+      </c>
+      <c r="I19" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="68"/>
+      <c r="B21" s="64">
+        <v>100</v>
+      </c>
+      <c r="C21" s="65">
+        <v>4762430</v>
+      </c>
+      <c r="D21" s="65">
+        <v>4762430</v>
+      </c>
+      <c r="E21" s="65">
+        <v>34506855</v>
+      </c>
+      <c r="F21" s="65">
+        <v>5.79</v>
+      </c>
+      <c r="G21" s="65">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H21" s="65">
+        <v>0</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="68"/>
+      <c r="B23" s="64">
+        <v>100</v>
+      </c>
+      <c r="C23" s="65">
+        <v>3940883</v>
+      </c>
+      <c r="D23" s="65">
+        <v>3940883</v>
+      </c>
+      <c r="E23" s="65">
+        <v>25238264</v>
+      </c>
+      <c r="F23" s="65">
+        <v>6.69</v>
+      </c>
+      <c r="G23" s="65">
+        <v>2.94</v>
+      </c>
+      <c r="H23" s="65">
+        <v>0</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="68"/>
+      <c r="B25" s="64">
+        <v>100</v>
+      </c>
+      <c r="C25" s="65">
+        <v>3815108</v>
+      </c>
+      <c r="D25" s="65">
+        <v>3815108</v>
+      </c>
+      <c r="E25" s="65">
+        <v>26753667</v>
+      </c>
+      <c r="F25" s="65">
+        <v>6.89</v>
+      </c>
+      <c r="G25" s="65">
+        <v>3.117</v>
+      </c>
+      <c r="H25" s="65">
+        <v>0</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="68"/>
+      <c r="B27" s="64">
+        <v>100</v>
+      </c>
+      <c r="C27" s="65">
+        <v>4908981</v>
+      </c>
+      <c r="D27" s="65">
+        <v>4908981</v>
+      </c>
+      <c r="E27" s="65">
+        <v>40052870</v>
+      </c>
+      <c r="F27" s="65">
+        <v>5.09</v>
+      </c>
+      <c r="G27" s="65">
+        <v>4.6660000000000004</v>
+      </c>
+      <c r="H27" s="65">
+        <v>0</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="68"/>
+      <c r="B29" s="64">
+        <v>100</v>
+      </c>
+      <c r="C29" s="65">
+        <v>4193516</v>
+      </c>
+      <c r="D29" s="65">
+        <v>4193516</v>
+      </c>
+      <c r="E29" s="65">
+        <v>42737122</v>
+      </c>
+      <c r="F29" s="65">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G29" s="65">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="H29" s="65">
+        <v>0</v>
+      </c>
+      <c r="I29" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="68"/>
+      <c r="B31" s="64">
+        <v>100</v>
+      </c>
+      <c r="C31" s="65">
+        <v>4091136</v>
+      </c>
+      <c r="D31" s="65">
+        <v>4091136</v>
+      </c>
+      <c r="E31" s="65">
+        <v>22891729</v>
+      </c>
+      <c r="F31" s="65">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="G31" s="65">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="H31" s="65">
+        <v>0</v>
+      </c>
+      <c r="I31" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="68"/>
+      <c r="B33" s="64">
+        <v>100</v>
+      </c>
+      <c r="C33" s="65">
+        <v>4385013</v>
+      </c>
+      <c r="D33" s="65">
+        <v>4385013</v>
+      </c>
+      <c r="E33" s="65">
+        <v>18360959</v>
+      </c>
+      <c r="F33" s="65">
+        <v>8.18</v>
+      </c>
+      <c r="G33" s="65">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="H33" s="65">
+        <v>0</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="67"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HW5/STAT736_HW5_Roberto_Villegas_Diaz_full_report.xlsx
+++ b/HW5/STAT736_HW5_Roberto_Villegas_Diaz_full_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.villegas-diaz/Library/Mobile Documents/com~apple~CloudDocs/SDSU/2019/STAT736 Bioinformatics/HW5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75BC0B-32B9-1049-8073-55BA5D330F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7F63D5-6977-8B40-BB92-980DBF597719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{A7BE4DD9-465A-48BE-8CA2-27A323D17C92}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="125">
   <si>
     <t>Basic Statistics</t>
   </si>
@@ -330,15 +330,100 @@
   </si>
   <si>
     <t>                Bacillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cellular organisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Terrabacteria group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Firmicutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Bacilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Bacillales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Bacillaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Bacillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Archaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Euryarchaeota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Methanococci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Methanococcales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Methanocaldococcaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Methanocaldococcus</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Methanocaldococcus jannaschii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Methanocaldococcus jannaschii DSM 2661</t>
+  </si>
+  <si>
+    <t>      Proteobacteria</t>
+  </si>
+  <si>
+    <t>        Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t>          Oceanospirillales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Proteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Oceanospirillales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Alcanivoracaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Alcanivorax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Alcanivorax sp. N3-7A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -395,7 +480,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +493,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -829,16 +920,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -873,108 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -983,6 +990,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,21 +1015,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2030,7 +2185,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A37"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2056,54 +2211,54 @@
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="58"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2182,63 +2337,63 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="23">
         <v>118323219</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40">
+      <c r="D3" s="24"/>
+      <c r="E3" s="23">
         <v>103127231</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40">
+      <c r="F3" s="24"/>
+      <c r="G3" s="23">
         <v>91225885</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="40">
+      <c r="H3" s="24"/>
+      <c r="I3" s="23">
         <v>108661623</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40">
+      <c r="J3" s="24"/>
+      <c r="K3" s="23">
         <v>136766553</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40">
+      <c r="L3" s="24"/>
+      <c r="M3" s="23">
         <v>124265478</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40">
+      <c r="N3" s="24"/>
+      <c r="O3" s="23">
         <v>99685598</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="40">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23">
         <v>106360532</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="40">
+      <c r="R3" s="24"/>
+      <c r="S3" s="23">
         <v>99988292</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="40">
+      <c r="T3" s="24"/>
+      <c r="U3" s="23">
         <v>75410310</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="40">
+      <c r="V3" s="24"/>
+      <c r="W3" s="23">
         <v>82750449</v>
       </c>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="40">
+      <c r="X3" s="24"/>
+      <c r="Y3" s="23">
         <v>92454136</v>
       </c>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2471,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2394,7 +2549,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2472,7 +2627,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +2705,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2783,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2861,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +2939,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2862,7 +3017,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2940,7 +3095,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3018,665 +3173,665 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="23">
         <v>102779602</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="40">
+      <c r="D14" s="24"/>
+      <c r="E14" s="23">
         <v>88509413</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40">
+      <c r="F14" s="24"/>
+      <c r="G14" s="23">
         <v>77240029</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="40">
+      <c r="H14" s="24"/>
+      <c r="I14" s="23">
         <v>94179097</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="40">
+      <c r="J14" s="24"/>
+      <c r="K14" s="23">
         <v>108337271</v>
       </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="40">
+      <c r="L14" s="24"/>
+      <c r="M14" s="23">
         <v>92924182</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="40">
+      <c r="N14" s="24"/>
+      <c r="O14" s="23">
         <v>76172416</v>
       </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="40">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="23">
         <v>95488961</v>
       </c>
-      <c r="R14" s="41"/>
-      <c r="S14" s="40">
+      <c r="R14" s="24"/>
+      <c r="S14" s="23">
         <v>69906417</v>
       </c>
-      <c r="T14" s="41"/>
-      <c r="U14" s="40">
+      <c r="T14" s="24"/>
+      <c r="U14" s="23">
         <v>54427039</v>
       </c>
-      <c r="V14" s="41"/>
-      <c r="W14" s="40">
+      <c r="V14" s="24"/>
+      <c r="W14" s="23">
         <v>73771492</v>
       </c>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="40">
+      <c r="X14" s="24"/>
+      <c r="Y14" s="23">
         <v>82764590</v>
       </c>
-      <c r="Z14" s="53"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="33">
         <f>C14/C3</f>
         <v>0.86863426188565751</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="50">
+      <c r="D15" s="34"/>
+      <c r="E15" s="33">
         <f>E14/E3</f>
         <v>0.85825452833112525</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50">
+      <c r="F15" s="34"/>
+      <c r="G15" s="33">
         <f t="shared" ref="G15" si="0">G14/G3</f>
         <v>0.84668982931763281</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="50">
+      <c r="H15" s="34"/>
+      <c r="I15" s="33">
         <f t="shared" ref="I15" si="1">I14/I3</f>
         <v>0.86671903474145606</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="50">
+      <c r="J15" s="34"/>
+      <c r="K15" s="33">
         <f t="shared" ref="K15" si="2">K14/K3</f>
         <v>0.79213278848959512</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="50">
+      <c r="L15" s="34"/>
+      <c r="M15" s="33">
         <f t="shared" ref="M15" si="3">M14/M3</f>
         <v>0.74778758747461627</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="50">
+      <c r="N15" s="34"/>
+      <c r="O15" s="33">
         <f t="shared" ref="O15" si="4">O14/O3</f>
         <v>0.76412658927922572</v>
       </c>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="50">
+      <c r="P15" s="34"/>
+      <c r="Q15" s="33">
         <f t="shared" ref="Q15" si="5">Q14/Q3</f>
         <v>0.89778566545718297</v>
       </c>
-      <c r="R15" s="51"/>
-      <c r="S15" s="50">
+      <c r="R15" s="34"/>
+      <c r="S15" s="33">
         <f t="shared" ref="S15" si="6">S14/S3</f>
         <v>0.69914602601672604</v>
       </c>
-      <c r="T15" s="51"/>
-      <c r="U15" s="50">
+      <c r="T15" s="34"/>
+      <c r="U15" s="33">
         <f t="shared" ref="U15" si="7">U14/U3</f>
         <v>0.72174532898750843</v>
       </c>
-      <c r="V15" s="51"/>
-      <c r="W15" s="50">
+      <c r="V15" s="34"/>
+      <c r="W15" s="33">
         <f t="shared" ref="W15" si="8">W14/W3</f>
         <v>0.89149355552137244</v>
       </c>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="50">
+      <c r="X15" s="34"/>
+      <c r="Y15" s="33">
         <f t="shared" ref="Y15" si="9">Y14/Y3</f>
         <v>0.89519618678822543</v>
       </c>
-      <c r="Z15" s="52"/>
+      <c r="Z15" s="41"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="35">
         <v>3202267</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="47">
+      <c r="D16" s="36"/>
+      <c r="E16" s="35">
         <v>5041955</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="47">
+      <c r="F16" s="36"/>
+      <c r="G16" s="35">
         <v>4667583</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47">
+      <c r="H16" s="36"/>
+      <c r="I16" s="35">
         <v>4832339</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="47">
+      <c r="J16" s="36"/>
+      <c r="K16" s="35">
         <v>9375417</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="47">
+      <c r="L16" s="36"/>
+      <c r="M16" s="35">
         <v>7916665</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="47">
+      <c r="N16" s="36"/>
+      <c r="O16" s="35">
         <v>6350522</v>
       </c>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="47">
+      <c r="P16" s="36"/>
+      <c r="Q16" s="35">
         <v>3894412</v>
       </c>
-      <c r="R16" s="48"/>
-      <c r="S16" s="47">
+      <c r="R16" s="36"/>
+      <c r="S16" s="35">
         <v>6944977</v>
       </c>
-      <c r="T16" s="48"/>
-      <c r="U16" s="47">
+      <c r="T16" s="36"/>
+      <c r="U16" s="35">
         <v>5349296</v>
       </c>
-      <c r="V16" s="48"/>
-      <c r="W16" s="47">
+      <c r="V16" s="36"/>
+      <c r="W16" s="35">
         <v>3489058</v>
       </c>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="47">
+      <c r="X16" s="36"/>
+      <c r="Y16" s="35">
         <v>3797776</v>
       </c>
-      <c r="Z16" s="49"/>
+      <c r="Z16" s="42"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="37">
         <f>C16/C3</f>
         <v>2.7063724491809171E-2</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23">
+      <c r="D17" s="38"/>
+      <c r="E17" s="37">
         <f>E16/E3</f>
         <v>4.8890627151620118E-2</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="23">
+      <c r="F17" s="38"/>
+      <c r="G17" s="37">
         <f t="shared" ref="G17" si="10">G16/G3</f>
         <v>5.1165116129046048E-2</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23">
+      <c r="H17" s="38"/>
+      <c r="I17" s="37">
         <f t="shared" ref="I17" si="11">I16/I3</f>
         <v>4.4471441403005733E-2</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="23">
+      <c r="J17" s="38"/>
+      <c r="K17" s="37">
         <f t="shared" ref="K17" si="12">K16/K3</f>
         <v>6.8550510299107997E-2</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="23">
+      <c r="L17" s="38"/>
+      <c r="M17" s="37">
         <f t="shared" ref="M17" si="13">M16/M3</f>
         <v>6.3707677525692216E-2</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="23">
+      <c r="N17" s="38"/>
+      <c r="O17" s="37">
         <f t="shared" ref="O17" si="14">O16/O3</f>
         <v>6.3705511401957987E-2</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="23">
+      <c r="P17" s="38"/>
+      <c r="Q17" s="37">
         <f t="shared" ref="Q17" si="15">Q16/Q3</f>
         <v>3.6615198577607713E-2</v>
       </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="23">
+      <c r="R17" s="38"/>
+      <c r="S17" s="37">
         <f t="shared" ref="S17" si="16">S16/S3</f>
         <v>6.9457902131181512E-2</v>
       </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="23">
+      <c r="T17" s="38"/>
+      <c r="U17" s="37">
         <f t="shared" ref="U17" si="17">U16/U3</f>
         <v>7.0935870705212595E-2</v>
       </c>
-      <c r="V17" s="25"/>
-      <c r="W17" s="23">
+      <c r="V17" s="38"/>
+      <c r="W17" s="37">
         <f t="shared" ref="W17" si="18">W16/W3</f>
         <v>4.216361412129619E-2</v>
       </c>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="23">
+      <c r="X17" s="38"/>
+      <c r="Y17" s="37">
         <f t="shared" ref="Y17" si="19">Y16/Y3</f>
         <v>4.1077405125499199E-2</v>
       </c>
-      <c r="Z17" s="24"/>
+      <c r="Z17" s="43"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="35">
         <v>5304558</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="47">
+      <c r="D18" s="36"/>
+      <c r="E18" s="35">
         <v>2602136</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="47">
+      <c r="F18" s="36"/>
+      <c r="G18" s="35">
         <v>2305245</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="47">
+      <c r="H18" s="36"/>
+      <c r="I18" s="35">
         <v>2489235</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="47">
+      <c r="J18" s="36"/>
+      <c r="K18" s="35">
         <v>2886942</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="47">
+      <c r="L18" s="36"/>
+      <c r="M18" s="35">
         <v>3030857</v>
       </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="47">
+      <c r="N18" s="36"/>
+      <c r="O18" s="35">
         <v>2514970</v>
       </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="47">
+      <c r="P18" s="36"/>
+      <c r="Q18" s="35">
         <v>1909747</v>
       </c>
-      <c r="R18" s="48"/>
-      <c r="S18" s="47">
+      <c r="R18" s="36"/>
+      <c r="S18" s="35">
         <v>2585392</v>
       </c>
-      <c r="T18" s="48"/>
-      <c r="U18" s="47">
+      <c r="T18" s="36"/>
+      <c r="U18" s="35">
         <v>1995636</v>
       </c>
-      <c r="V18" s="48"/>
-      <c r="W18" s="47">
+      <c r="V18" s="36"/>
+      <c r="W18" s="35">
         <v>1527656</v>
       </c>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="47">
+      <c r="X18" s="36"/>
+      <c r="Y18" s="35">
         <v>1639373</v>
       </c>
-      <c r="Z18" s="49"/>
+      <c r="Z18" s="42"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="37">
         <f>C18/C3</f>
         <v>4.4831082562079384E-2</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23">
+      <c r="D19" s="38"/>
+      <c r="E19" s="37">
         <f>E18/E3</f>
         <v>2.5232288065603157E-2</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="23">
+      <c r="F19" s="38"/>
+      <c r="G19" s="37">
         <f t="shared" ref="G19" si="20">G18/G3</f>
         <v>2.5269637011468841E-2</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23">
+      <c r="H19" s="38"/>
+      <c r="I19" s="37">
         <f>I18/I3</f>
         <v>2.2908133812799759E-2</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23">
+      <c r="J19" s="38"/>
+      <c r="K19" s="37">
         <f t="shared" ref="K19" si="21">K18/K3</f>
         <v>2.1108538137975884E-2</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="23">
+      <c r="L19" s="38"/>
+      <c r="M19" s="37">
         <f t="shared" ref="M19" si="22">M18/M3</f>
         <v>2.4390176972561919E-2</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="23">
+      <c r="N19" s="38"/>
+      <c r="O19" s="37">
         <f t="shared" ref="O19" si="23">O18/O3</f>
         <v>2.5229020545174438E-2</v>
       </c>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="23">
+      <c r="P19" s="38"/>
+      <c r="Q19" s="37">
         <f t="shared" ref="Q19" si="24">Q18/Q3</f>
         <v>1.7955410377225266E-2</v>
       </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="23">
+      <c r="R19" s="38"/>
+      <c r="S19" s="37">
         <f t="shared" ref="S19" si="25">S18/S3</f>
         <v>2.585694733139356E-2</v>
       </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="23">
+      <c r="T19" s="38"/>
+      <c r="U19" s="37">
         <f t="shared" ref="U19" si="26">U18/U3</f>
         <v>2.6463702377035714E-2</v>
       </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="23">
+      <c r="V19" s="38"/>
+      <c r="W19" s="37">
         <f t="shared" ref="W19" si="27">W18/W3</f>
         <v>1.8460999528836394E-2</v>
       </c>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="23">
+      <c r="X19" s="38"/>
+      <c r="Y19" s="37">
         <f t="shared" ref="Y19" si="28">Y18/Y3</f>
         <v>1.7731743228880534E-2</v>
       </c>
-      <c r="Z19" s="24"/>
+      <c r="Z19" s="43"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="35">
         <v>7036792</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="47">
+      <c r="D20" s="36"/>
+      <c r="E20" s="35">
         <v>6973727</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="47">
+      <c r="F20" s="36"/>
+      <c r="G20" s="35">
         <v>7013028</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="47">
+      <c r="H20" s="36"/>
+      <c r="I20" s="35">
         <v>7160952</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="47">
+      <c r="J20" s="36"/>
+      <c r="K20" s="35">
         <v>16166923</v>
       </c>
-      <c r="L20" s="48"/>
-      <c r="M20" s="47">
+      <c r="L20" s="36"/>
+      <c r="M20" s="35">
         <v>20393774</v>
       </c>
-      <c r="N20" s="48"/>
-      <c r="O20" s="47">
+      <c r="N20" s="36"/>
+      <c r="O20" s="35">
         <v>14647690</v>
       </c>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="47">
+      <c r="P20" s="36"/>
+      <c r="Q20" s="35">
         <v>5067412</v>
       </c>
-      <c r="R20" s="48"/>
-      <c r="S20" s="47">
+      <c r="R20" s="36"/>
+      <c r="S20" s="35">
         <v>20551506</v>
       </c>
-      <c r="T20" s="48"/>
-      <c r="U20" s="47">
+      <c r="T20" s="36"/>
+      <c r="U20" s="35">
         <v>13638339</v>
       </c>
-      <c r="V20" s="48"/>
-      <c r="W20" s="47">
+      <c r="V20" s="36"/>
+      <c r="W20" s="35">
         <v>3962243</v>
       </c>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="47">
+      <c r="X20" s="36"/>
+      <c r="Y20" s="35">
         <v>4252397</v>
       </c>
-      <c r="Z20" s="49"/>
+      <c r="Z20" s="42"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="37">
         <f>C20/C3</f>
         <v>5.9470931060453994E-2</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23">
+      <c r="D21" s="38"/>
+      <c r="E21" s="37">
         <f>E20/E3</f>
         <v>6.7622556451651453E-2</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="23">
+      <c r="F21" s="38"/>
+      <c r="G21" s="37">
         <f>G20/G3</f>
         <v>7.6875417541852287E-2</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23">
+      <c r="H21" s="38"/>
+      <c r="I21" s="37">
         <f t="shared" ref="I21" si="29">I20/I3</f>
         <v>6.5901390042738456E-2</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="23">
+      <c r="J21" s="38"/>
+      <c r="K21" s="37">
         <f t="shared" ref="K21" si="30">K20/K3</f>
         <v>0.11820816307332101</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="23">
+      <c r="L21" s="38"/>
+      <c r="M21" s="37">
         <f t="shared" ref="M21" si="31">M20/M3</f>
         <v>0.16411455802712963</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="23">
+      <c r="N21" s="38"/>
+      <c r="O21" s="37">
         <f t="shared" ref="O21" si="32">O20/O3</f>
         <v>0.1469388787736419</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23">
+      <c r="P21" s="38"/>
+      <c r="Q21" s="37">
         <f t="shared" ref="Q21" si="33">Q20/Q3</f>
         <v>4.7643725587984083E-2</v>
       </c>
-      <c r="R21" s="25"/>
-      <c r="S21" s="23">
+      <c r="R21" s="38"/>
+      <c r="S21" s="37">
         <f t="shared" ref="S21" si="34">S20/S3</f>
         <v>0.20553912452069889</v>
       </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="23">
+      <c r="T21" s="38"/>
+      <c r="U21" s="37">
         <f t="shared" ref="U21" si="35">U20/U3</f>
         <v>0.18085509793024324</v>
       </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="23">
+      <c r="V21" s="38"/>
+      <c r="W21" s="37">
         <f t="shared" ref="W21" si="36">W20/W3</f>
         <v>4.788183082849496E-2</v>
       </c>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="23">
+      <c r="X21" s="38"/>
+      <c r="Y21" s="37">
         <f t="shared" ref="Y21" si="37">Y20/Y3</f>
         <v>4.5994664857394806E-2</v>
       </c>
-      <c r="Z21" s="24"/>
+      <c r="Z21" s="43"/>
     </row>
     <row r="22" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="42" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42" t="s">
+      <c r="H22" s="40"/>
+      <c r="I22" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="42" t="s">
+      <c r="J22" s="40"/>
+      <c r="K22" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="42" t="s">
+      <c r="L22" s="40"/>
+      <c r="M22" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="42" t="s">
+      <c r="N22" s="40"/>
+      <c r="O22" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="42" t="s">
+      <c r="P22" s="40"/>
+      <c r="Q22" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="42" t="s">
+      <c r="R22" s="40"/>
+      <c r="S22" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="T22" s="43"/>
-      <c r="U22" s="42" t="s">
+      <c r="T22" s="40"/>
+      <c r="U22" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="V22" s="43"/>
-      <c r="W22" s="42" t="s">
+      <c r="V22" s="40"/>
+      <c r="W22" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="42" t="s">
+      <c r="X22" s="40"/>
+      <c r="Y22" s="39" t="s">
         <v>70</v>
       </c>
       <c r="Z22" s="44"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="23">
         <v>102779602</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="40">
+      <c r="D23" s="24"/>
+      <c r="E23" s="23">
         <v>88509413</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="40">
+      <c r="F23" s="24"/>
+      <c r="G23" s="23">
         <v>77240029</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="40">
+      <c r="H23" s="24"/>
+      <c r="I23" s="23">
         <v>94179097</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="40">
+      <c r="J23" s="24"/>
+      <c r="K23" s="23">
         <v>108337271</v>
       </c>
-      <c r="L23" s="41"/>
-      <c r="M23" s="40">
+      <c r="L23" s="24"/>
+      <c r="M23" s="23">
         <v>92924182</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="40">
+      <c r="N23" s="24"/>
+      <c r="O23" s="23">
         <v>76172416</v>
       </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="40">
+      <c r="P23" s="24"/>
+      <c r="Q23" s="23">
         <v>95488961</v>
       </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="40">
+      <c r="R23" s="24"/>
+      <c r="S23" s="23">
         <v>69906417</v>
       </c>
-      <c r="T23" s="41"/>
-      <c r="U23" s="40">
+      <c r="T23" s="24"/>
+      <c r="U23" s="23">
         <v>54427039</v>
       </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="40">
+      <c r="V23" s="24"/>
+      <c r="W23" s="23">
         <v>73771492</v>
       </c>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="40">
+      <c r="X23" s="24"/>
+      <c r="Y23" s="23">
         <v>82764590</v>
       </c>
-      <c r="Z23" s="53"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="37">
         <f>C23/C3</f>
         <v>0.86863426188565751</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="23">
+      <c r="D24" s="38"/>
+      <c r="E24" s="37">
         <f t="shared" ref="E24" si="38">E23/E3</f>
         <v>0.85825452833112525</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="23">
+      <c r="F24" s="38"/>
+      <c r="G24" s="37">
         <f t="shared" ref="G24" si="39">G23/G3</f>
         <v>0.84668982931763281</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="23">
+      <c r="H24" s="38"/>
+      <c r="I24" s="37">
         <f t="shared" ref="I24" si="40">I23/I3</f>
         <v>0.86671903474145606</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="23">
+      <c r="J24" s="38"/>
+      <c r="K24" s="37">
         <f t="shared" ref="K24" si="41">K23/K3</f>
         <v>0.79213278848959512</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="23">
+      <c r="L24" s="38"/>
+      <c r="M24" s="37">
         <f t="shared" ref="M24" si="42">M23/M3</f>
         <v>0.74778758747461627</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="23">
+      <c r="N24" s="38"/>
+      <c r="O24" s="37">
         <f t="shared" ref="O24" si="43">O23/O3</f>
         <v>0.76412658927922572</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="23">
+      <c r="P24" s="38"/>
+      <c r="Q24" s="37">
         <f t="shared" ref="Q24" si="44">Q23/Q3</f>
         <v>0.89778566545718297</v>
       </c>
-      <c r="R24" s="25"/>
-      <c r="S24" s="23">
+      <c r="R24" s="38"/>
+      <c r="S24" s="37">
         <f t="shared" ref="S24" si="45">S23/S3</f>
         <v>0.69914602601672604</v>
       </c>
-      <c r="T24" s="25"/>
-      <c r="U24" s="23">
+      <c r="T24" s="38"/>
+      <c r="U24" s="37">
         <f t="shared" ref="U24" si="46">U23/U3</f>
         <v>0.72174532898750843</v>
       </c>
-      <c r="V24" s="25"/>
-      <c r="W24" s="23">
+      <c r="V24" s="38"/>
+      <c r="W24" s="37">
         <f t="shared" ref="W24" si="47">W23/W3</f>
         <v>0.89149355552137244</v>
       </c>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="23">
+      <c r="X24" s="38"/>
+      <c r="Y24" s="37">
         <f t="shared" ref="Y24" si="48">Y23/Y3</f>
         <v>0.89519618678822543</v>
       </c>
-      <c r="Z24" s="24"/>
+      <c r="Z24" s="43"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
@@ -3754,7 +3909,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -3832,7 +3987,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -3910,7 +4065,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +4143,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -4066,7 +4221,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
@@ -4144,7 +4299,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4222,7 +4377,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
@@ -4300,7 +4455,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
@@ -4378,7 +4533,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
@@ -4456,99 +4611,99 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
     </row>
     <row r="37" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -4558,761 +4713,1090 @@
         <v>102779602</v>
       </c>
       <c r="D38" s="46"/>
-      <c r="E38" s="40">
+      <c r="E38" s="23">
         <v>88509413</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="40">
+      <c r="F38" s="24"/>
+      <c r="G38" s="23">
         <v>77240029</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="40">
+      <c r="H38" s="24"/>
+      <c r="I38" s="23">
         <v>94179097</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="40">
+      <c r="J38" s="24"/>
+      <c r="K38" s="23">
         <v>108337271</v>
       </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="40">
+      <c r="L38" s="24"/>
+      <c r="M38" s="23">
         <v>92924182</v>
       </c>
-      <c r="N38" s="41"/>
-      <c r="O38" s="40">
+      <c r="N38" s="24"/>
+      <c r="O38" s="23">
         <v>76172416</v>
       </c>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="32">
+      <c r="P38" s="24"/>
+      <c r="Q38" s="53">
         <v>95488961</v>
       </c>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32">
+      <c r="R38" s="53"/>
+      <c r="S38" s="53">
         <v>69906417</v>
       </c>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32">
+      <c r="T38" s="53"/>
+      <c r="U38" s="53">
         <v>54427039</v>
       </c>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32">
+      <c r="V38" s="53"/>
+      <c r="W38" s="53">
         <v>73771492</v>
       </c>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32">
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53">
         <v>82764590</v>
       </c>
-      <c r="Z38" s="33"/>
+      <c r="Z38" s="54"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="47">
         <v>83997778</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="38">
+      <c r="D39" s="48"/>
+      <c r="E39" s="47">
         <v>72886507</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="38">
+      <c r="F39" s="48"/>
+      <c r="G39" s="47">
         <v>63080607</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="38">
+      <c r="H39" s="48"/>
+      <c r="I39" s="47">
         <v>78266028</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="38">
+      <c r="J39" s="48"/>
+      <c r="K39" s="47">
         <v>90382298</v>
       </c>
-      <c r="L39" s="39"/>
-      <c r="M39" s="38">
+      <c r="L39" s="48"/>
+      <c r="M39" s="47">
         <v>78565604</v>
       </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="38">
+      <c r="N39" s="48"/>
+      <c r="O39" s="47">
         <v>62830592</v>
       </c>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="30">
+      <c r="P39" s="48"/>
+      <c r="Q39" s="55">
         <v>82902484</v>
       </c>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30">
+      <c r="R39" s="55"/>
+      <c r="S39" s="55">
         <v>56448204</v>
       </c>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30">
+      <c r="T39" s="55"/>
+      <c r="U39" s="55">
         <v>43681618</v>
       </c>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30">
+      <c r="V39" s="55"/>
+      <c r="W39" s="55">
         <v>59617363</v>
       </c>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30">
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55">
         <v>67555737</v>
       </c>
-      <c r="Z39" s="31"/>
+      <c r="Z39" s="56"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="51">
         <f>100*C39/C38</f>
         <v>81.726117211467695</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="36">
+      <c r="D40" s="52"/>
+      <c r="E40" s="51">
         <f t="shared" ref="E40:I40" si="49">100*E39/E38</f>
         <v>82.348876271498938</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="36">
+      <c r="F40" s="52"/>
+      <c r="G40" s="51">
         <f t="shared" si="49"/>
         <v>81.668284976951526</v>
       </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="36">
+      <c r="H40" s="52"/>
+      <c r="I40" s="51">
         <f t="shared" si="49"/>
         <v>83.103396075245868</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="36">
+      <c r="J40" s="52"/>
+      <c r="K40" s="51">
         <f>100*K39/K38</f>
         <v>83.426781167489438</v>
       </c>
-      <c r="L40" s="37"/>
-      <c r="M40" s="36">
+      <c r="L40" s="52"/>
+      <c r="M40" s="51">
         <f t="shared" ref="M40" si="50">100*M39/M38</f>
         <v>84.548071674174111</v>
       </c>
-      <c r="N40" s="37"/>
-      <c r="O40" s="36">
+      <c r="N40" s="52"/>
+      <c r="O40" s="51">
         <f t="shared" ref="O40" si="51">100*O39/O38</f>
         <v>82.484704174277468</v>
       </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="28">
+      <c r="P40" s="52"/>
+      <c r="Q40" s="57">
         <f t="shared" ref="Q40" si="52">100*Q39/Q38</f>
         <v>86.818919309426775</v>
       </c>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28">
+      <c r="R40" s="57"/>
+      <c r="S40" s="57">
         <f t="shared" ref="S40" si="53">100*S39/S38</f>
         <v>80.74824375564836</v>
       </c>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28">
+      <c r="T40" s="57"/>
+      <c r="U40" s="57">
         <f t="shared" ref="U40" si="54">100*U39/U38</f>
         <v>80.257200837252967</v>
       </c>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28">
+      <c r="V40" s="57"/>
+      <c r="W40" s="57">
         <f t="shared" ref="W40" si="55">100*W39/W38</f>
         <v>80.813551934126536</v>
       </c>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28">
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57">
         <f t="shared" ref="Y40" si="56">100*Y39/Y38</f>
         <v>81.623961406683705</v>
       </c>
-      <c r="Z40" s="29"/>
+      <c r="Z40" s="58"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="51">
         <v>100.73</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="36">
+      <c r="D41" s="52"/>
+      <c r="E41" s="51">
         <v>101.11</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="36">
+      <c r="F41" s="52"/>
+      <c r="G41" s="51">
         <v>101.1</v>
       </c>
-      <c r="H41" s="37"/>
-      <c r="I41" s="36">
+      <c r="H41" s="52"/>
+      <c r="I41" s="51">
         <v>101.14</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="36">
+      <c r="J41" s="52"/>
+      <c r="K41" s="51">
         <v>100.6</v>
       </c>
-      <c r="L41" s="37"/>
-      <c r="M41" s="36">
+      <c r="L41" s="52"/>
+      <c r="M41" s="51">
         <v>100.51</v>
       </c>
-      <c r="N41" s="37"/>
-      <c r="O41" s="36">
+      <c r="N41" s="52"/>
+      <c r="O41" s="51">
         <v>100.51</v>
       </c>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="28">
+      <c r="P41" s="52"/>
+      <c r="Q41" s="57">
         <v>100.81</v>
       </c>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28">
+      <c r="R41" s="57"/>
+      <c r="S41" s="57">
         <v>100.41</v>
       </c>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28">
+      <c r="T41" s="57"/>
+      <c r="U41" s="57">
         <v>100.33</v>
       </c>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28">
+      <c r="V41" s="57"/>
+      <c r="W41" s="57">
         <v>101.18</v>
       </c>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28">
+      <c r="X41" s="57"/>
+      <c r="Y41" s="57">
         <v>101.22</v>
       </c>
-      <c r="Z41" s="29"/>
+      <c r="Z41" s="58"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="47">
         <v>8669309</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="38">
+      <c r="D42" s="48"/>
+      <c r="E42" s="47">
         <v>8001254</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="38">
+      <c r="F42" s="48"/>
+      <c r="G42" s="47">
         <v>10614183</v>
       </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="38">
+      <c r="H42" s="48"/>
+      <c r="I42" s="47">
         <v>11755786</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="38">
+      <c r="J42" s="48"/>
+      <c r="K42" s="47">
         <v>10864763</v>
       </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="38">
+      <c r="L42" s="48"/>
+      <c r="M42" s="47">
         <v>8361834</v>
       </c>
-      <c r="N42" s="39"/>
-      <c r="O42" s="38">
+      <c r="N42" s="48"/>
+      <c r="O42" s="47">
         <v>6866426</v>
       </c>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="30">
+      <c r="P42" s="48"/>
+      <c r="Q42" s="55">
         <v>7992131</v>
       </c>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30">
+      <c r="R42" s="55"/>
+      <c r="S42" s="55">
         <v>6183251</v>
       </c>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30">
+      <c r="T42" s="55"/>
+      <c r="U42" s="55">
         <v>4335350</v>
       </c>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30">
+      <c r="V42" s="55"/>
+      <c r="W42" s="55">
         <v>7285589</v>
       </c>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30">
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55">
         <v>8582074</v>
       </c>
-      <c r="Z42" s="31"/>
+      <c r="Z42" s="56"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="47">
         <v>12297468</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="38">
+      <c r="D43" s="48"/>
+      <c r="E43" s="47">
         <v>10128496</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="38">
+      <c r="F43" s="48"/>
+      <c r="G43" s="47">
         <v>10020457</v>
       </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="38">
+      <c r="H43" s="48"/>
+      <c r="I43" s="47">
         <v>10617795</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="38">
+      <c r="J43" s="48"/>
+      <c r="K43" s="47">
         <v>11940058</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="38">
+      <c r="L43" s="48"/>
+      <c r="M43" s="47">
         <v>8949196</v>
       </c>
-      <c r="N43" s="39"/>
-      <c r="O43" s="38">
+      <c r="N43" s="48"/>
+      <c r="O43" s="47">
         <v>8840727</v>
       </c>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="30">
+      <c r="P43" s="48"/>
+      <c r="Q43" s="55">
         <v>7971455</v>
       </c>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30">
+      <c r="R43" s="55"/>
+      <c r="S43" s="55">
         <v>8001379</v>
       </c>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30">
+      <c r="T43" s="55"/>
+      <c r="U43" s="55">
         <v>5937146</v>
       </c>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30">
+      <c r="V43" s="55"/>
+      <c r="W43" s="55">
         <v>8991847</v>
       </c>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30">
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55">
         <v>10165811</v>
       </c>
-      <c r="Z43" s="31"/>
+      <c r="Z43" s="56"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="51">
         <f>100*C43/C38</f>
         <v>11.96489163287478</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="36">
+      <c r="D44" s="52"/>
+      <c r="E44" s="51">
         <f t="shared" ref="E44:I44" si="57">100*E43/E38</f>
         <v>11.443411109279417</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36">
+      <c r="F44" s="52"/>
+      <c r="G44" s="51">
         <f t="shared" si="57"/>
         <v>12.973139872850126</v>
       </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="36">
+      <c r="H44" s="52"/>
+      <c r="I44" s="51">
         <f t="shared" si="57"/>
         <v>11.274046299254707</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="36">
+      <c r="J44" s="52"/>
+      <c r="K44" s="51">
         <f>100*K43/K38</f>
         <v>11.021191405125942</v>
       </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="36">
+      <c r="L44" s="52"/>
+      <c r="M44" s="51">
         <f>100*M43/M38</f>
         <v>9.6306427534654002</v>
       </c>
-      <c r="N44" s="37"/>
-      <c r="O44" s="36">
+      <c r="N44" s="52"/>
+      <c r="O44" s="51">
         <f t="shared" ref="O44" si="58">100*O43/O38</f>
         <v>11.606205322409624</v>
       </c>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="28">
+      <c r="P44" s="52"/>
+      <c r="Q44" s="57">
         <f>100*Q43/Q38</f>
         <v>8.3480382617211646</v>
       </c>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28">
+      <c r="R44" s="57"/>
+      <c r="S44" s="57">
         <f>100*S43/S38</f>
         <v>11.44584337658158</v>
       </c>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28">
+      <c r="T44" s="57"/>
+      <c r="U44" s="57">
         <f t="shared" ref="U44" si="59">100*U43/U38</f>
         <v>10.908449383035517</v>
       </c>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28">
+      <c r="V44" s="57"/>
+      <c r="W44" s="57">
         <f>100*W43/W38</f>
         <v>12.188782897328416</v>
       </c>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28">
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57">
         <f>100*Y43/Y38</f>
         <v>12.282802343369308</v>
       </c>
-      <c r="Z44" s="29"/>
+      <c r="Z44" s="58"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="47">
         <v>1852567</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="38">
+      <c r="D45" s="48"/>
+      <c r="E45" s="47">
         <v>1405520</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="38">
+      <c r="F45" s="48"/>
+      <c r="G45" s="47">
         <v>1242987</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="38">
+      <c r="H45" s="48"/>
+      <c r="I45" s="47">
         <v>1061581</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="38">
+      <c r="J45" s="48"/>
+      <c r="K45" s="47">
         <v>1736909</v>
       </c>
-      <c r="L45" s="39"/>
-      <c r="M45" s="38">
+      <c r="L45" s="48"/>
+      <c r="M45" s="47">
         <v>1362437</v>
       </c>
-      <c r="N45" s="39"/>
-      <c r="O45" s="38">
+      <c r="N45" s="48"/>
+      <c r="O45" s="47">
         <v>1374511</v>
       </c>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="30">
+      <c r="P45" s="48"/>
+      <c r="Q45" s="55">
         <v>846306</v>
       </c>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30">
+      <c r="R45" s="55"/>
+      <c r="S45" s="55">
         <v>1010599</v>
       </c>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30">
+      <c r="T45" s="55"/>
+      <c r="U45" s="55">
         <v>958126</v>
       </c>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30">
+      <c r="V45" s="55"/>
+      <c r="W45" s="55">
         <v>703260</v>
       </c>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30">
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55">
         <v>891102</v>
       </c>
-      <c r="Z45" s="31"/>
+      <c r="Z45" s="56"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="51">
         <f>100*C45/C38</f>
         <v>1.8024656293181598</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="36">
+      <c r="D46" s="52"/>
+      <c r="E46" s="51">
         <f t="shared" ref="E46:I46" si="60">100*E45/E38</f>
         <v>1.5879892910373272</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="36">
+      <c r="F46" s="52"/>
+      <c r="G46" s="51">
         <f t="shared" si="60"/>
         <v>1.6092523735328996</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="36">
+      <c r="H46" s="52"/>
+      <c r="I46" s="51">
         <f t="shared" si="60"/>
         <v>1.1271938612874999</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="36">
+      <c r="J46" s="52"/>
+      <c r="K46" s="51">
         <f t="shared" ref="K46:Y46" si="61">100*K45/K38</f>
         <v>1.6032423412253018</v>
       </c>
-      <c r="L46" s="37"/>
-      <c r="M46" s="36">
+      <c r="L46" s="52"/>
+      <c r="M46" s="51">
         <f t="shared" si="61"/>
         <v>1.4661813218866968</v>
       </c>
-      <c r="N46" s="37"/>
-      <c r="O46" s="36">
+      <c r="N46" s="52"/>
+      <c r="O46" s="51">
         <f t="shared" si="61"/>
         <v>1.8044734198794483</v>
       </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="28">
+      <c r="P46" s="52"/>
+      <c r="Q46" s="57">
         <f t="shared" si="61"/>
         <v>0.88628674051652945</v>
       </c>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28">
+      <c r="R46" s="57"/>
+      <c r="S46" s="57">
         <f t="shared" si="61"/>
         <v>1.4456455406661737</v>
       </c>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28">
+      <c r="T46" s="57"/>
+      <c r="U46" s="57">
         <f t="shared" si="61"/>
         <v>1.7603860463546437</v>
       </c>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28">
+      <c r="V46" s="57"/>
+      <c r="W46" s="57">
         <f t="shared" si="61"/>
         <v>0.95329507501352961</v>
       </c>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28">
+      <c r="X46" s="57"/>
+      <c r="Y46" s="57">
         <f t="shared" si="61"/>
         <v>1.076670590647522</v>
       </c>
-      <c r="Z46" s="29"/>
+      <c r="Z46" s="58"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="47">
         <v>4196475</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="38">
+      <c r="D47" s="48"/>
+      <c r="E47" s="47">
         <v>3721320</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="38">
+      <c r="F47" s="48"/>
+      <c r="G47" s="47">
         <v>2638252</v>
       </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="38">
+      <c r="H47" s="48"/>
+      <c r="I47" s="47">
         <v>3853491</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="38">
+      <c r="J47" s="48"/>
+      <c r="K47" s="47">
         <v>3805412</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="38">
+      <c r="L47" s="48"/>
+      <c r="M47" s="47">
         <v>3593090</v>
       </c>
-      <c r="N47" s="39"/>
-      <c r="O47" s="38">
+      <c r="N47" s="48"/>
+      <c r="O47" s="47">
         <v>2789471</v>
       </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="30">
+      <c r="P47" s="48"/>
+      <c r="Q47" s="55">
         <v>3298751</v>
       </c>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30">
+      <c r="R47" s="55"/>
+      <c r="S47" s="55">
         <v>4070723</v>
       </c>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30">
+      <c r="T47" s="55"/>
+      <c r="U47" s="55">
         <v>3483126</v>
       </c>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30">
+      <c r="V47" s="55"/>
+      <c r="W47" s="55">
         <v>4140373</v>
       </c>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30">
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55">
         <v>3746739</v>
       </c>
-      <c r="Z47" s="31"/>
+      <c r="Z47" s="56"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="51">
         <f>100*C47/C38</f>
         <v>4.0829842870961883</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="36">
+      <c r="D48" s="52"/>
+      <c r="E48" s="51">
         <f t="shared" ref="E48:I48" si="62">100*E47/E38</f>
         <v>4.2044341656632609</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="36">
+      <c r="F48" s="52"/>
+      <c r="G48" s="51">
         <f t="shared" si="62"/>
         <v>3.4156538185660184</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="36">
+      <c r="H48" s="52"/>
+      <c r="I48" s="51">
         <f t="shared" si="62"/>
         <v>4.0916627178958827</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="36">
+      <c r="J48" s="52"/>
+      <c r="K48" s="51">
         <f>100*K47/K38</f>
         <v>3.512560326538039</v>
       </c>
-      <c r="L48" s="37"/>
-      <c r="M48" s="36">
+      <c r="L48" s="52"/>
+      <c r="M48" s="51">
         <f>100*M47/M38</f>
         <v>3.866689942990297</v>
       </c>
-      <c r="N48" s="37"/>
-      <c r="O48" s="36">
+      <c r="N48" s="52"/>
+      <c r="O48" s="51">
         <f>100*O47/O38</f>
         <v>3.6620487395332191</v>
       </c>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="28">
+      <c r="P48" s="52"/>
+      <c r="Q48" s="57">
         <f>100*Q47/Q38</f>
         <v>3.4545888503279452</v>
       </c>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28">
+      <c r="R48" s="57"/>
+      <c r="S48" s="57">
         <f t="shared" ref="S48" si="63">100*S47/S38</f>
         <v>5.8231034784689362</v>
       </c>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28">
+      <c r="T48" s="57"/>
+      <c r="U48" s="57">
         <f t="shared" ref="U48" si="64">100*U47/U38</f>
         <v>6.399624274985821</v>
       </c>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28">
+      <c r="V48" s="57"/>
+      <c r="W48" s="57">
         <f>100*W47/W38</f>
         <v>5.6124295276554799</v>
       </c>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28">
+      <c r="X48" s="57"/>
+      <c r="Y48" s="57">
         <f>100*Y47/Y38</f>
         <v>4.5269830974816649</v>
       </c>
-      <c r="Z48" s="29"/>
+      <c r="Z48" s="58"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="47">
         <v>435314</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="38">
+      <c r="D49" s="48"/>
+      <c r="E49" s="47">
         <v>367570</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="38">
+      <c r="F49" s="48"/>
+      <c r="G49" s="47">
         <v>257726</v>
       </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="38">
+      <c r="H49" s="48"/>
+      <c r="I49" s="47">
         <v>380202</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="38">
+      <c r="J49" s="48"/>
+      <c r="K49" s="47">
         <v>472594</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="38">
+      <c r="L49" s="48"/>
+      <c r="M49" s="47">
         <v>453855</v>
       </c>
-      <c r="N49" s="39"/>
-      <c r="O49" s="38">
+      <c r="N49" s="48"/>
+      <c r="O49" s="47">
         <v>337115</v>
       </c>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="30">
+      <c r="P49" s="48"/>
+      <c r="Q49" s="55">
         <v>469965</v>
       </c>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30">
+      <c r="R49" s="55"/>
+      <c r="S49" s="55">
         <v>375512</v>
       </c>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30">
+      <c r="T49" s="55"/>
+      <c r="U49" s="55">
         <v>367023</v>
       </c>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30">
+      <c r="V49" s="55"/>
+      <c r="W49" s="55">
         <v>318649</v>
       </c>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30">
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55">
         <v>405201</v>
       </c>
-      <c r="Z49" s="31"/>
+      <c r="Z49" s="56"/>
     </row>
     <row r="50" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="49">
         <f>100*C49/C38</f>
         <v>0.423541239243172</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="34">
+      <c r="D50" s="50"/>
+      <c r="E50" s="49">
         <f t="shared" ref="E50:I50" si="65">100*E49/E38</f>
         <v>0.41528916252105297</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="34">
+      <c r="F50" s="50"/>
+      <c r="G50" s="49">
         <f t="shared" si="65"/>
         <v>0.33366895809943314</v>
       </c>
-      <c r="H50" s="35"/>
-      <c r="I50" s="34">
+      <c r="H50" s="50"/>
+      <c r="I50" s="49">
         <f t="shared" si="65"/>
         <v>0.40370104631604187</v>
       </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="34">
+      <c r="J50" s="50"/>
+      <c r="K50" s="49">
         <f t="shared" ref="K50" si="66">100*K49/K38</f>
         <v>0.43622475962127566</v>
       </c>
-      <c r="L50" s="35"/>
-      <c r="M50" s="34">
+      <c r="L50" s="50"/>
+      <c r="M50" s="49">
         <f t="shared" ref="M50" si="67">100*M49/M38</f>
         <v>0.48841430748349229</v>
       </c>
-      <c r="N50" s="35"/>
-      <c r="O50" s="34">
+      <c r="N50" s="50"/>
+      <c r="O50" s="49">
         <f t="shared" ref="O50" si="68">100*O49/O38</f>
         <v>0.44256834390023814</v>
       </c>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="26">
+      <c r="P50" s="50"/>
+      <c r="Q50" s="59">
         <f t="shared" ref="Q50" si="69">100*Q49/Q38</f>
         <v>0.49216683800758915</v>
       </c>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26">
+      <c r="R50" s="59"/>
+      <c r="S50" s="59">
         <f t="shared" ref="S50" si="70">100*S49/S38</f>
         <v>0.53716384863495437</v>
       </c>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26">
+      <c r="T50" s="59"/>
+      <c r="U50" s="59">
         <f t="shared" ref="U50" si="71">100*U49/U38</f>
         <v>0.67433945837104969</v>
       </c>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26">
+      <c r="V50" s="59"/>
+      <c r="W50" s="59">
         <f t="shared" ref="W50" si="72">100*W49/W38</f>
         <v>0.43194056587604329</v>
       </c>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26">
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59">
         <f t="shared" ref="Y50" si="73">100*Y49/Y38</f>
         <v>0.48958256181780158</v>
       </c>
-      <c r="Z50" s="27"/>
+      <c r="Z50" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="353">
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="A38:A50"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="K23:L23"/>
@@ -5337,337 +5821,8 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4:Z13">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C4)))</formula>
@@ -5697,1052 +5852,4049 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD76C1-4C28-4F4D-A52F-FA36D3E6CF23}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="64"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="84" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="64">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67">
         <v>84.64</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="68">
         <v>5488438</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="68">
         <v>5488438</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="68">
         <v>41468621</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="68">
         <v>6.19</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="68">
         <v>4.8310000000000004</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="68">
         <v>0</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="69" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="64">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67">
         <v>15.36</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="68">
         <v>995918</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="68">
         <v>33659</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="68">
         <v>4542</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="68">
         <v>457</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="70">
         <v>6.8560000000000001E-6</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="68">
         <v>1</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="69" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="64">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67">
         <v>13.17</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="68">
         <v>854150</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="68">
         <v>1970</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="68">
         <v>3464</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="68">
         <v>521</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="70">
         <v>5.3020000000000002E-6</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="68">
         <v>131567</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="69" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="64">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67">
         <v>7.9770000000000003</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="68">
         <v>517286</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="68">
         <v>8081</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="68">
         <v>2738</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="68">
         <v>409</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="70">
         <v>4.335E-6</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="68">
         <v>2</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="69" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="64">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67">
         <v>7.7389999999999999</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="68">
         <v>501801</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="68">
         <v>32</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="68">
         <v>740</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="70">
         <v>1480</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="70">
         <v>3.0450000000000001E-6</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="68">
         <v>1783272</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="69" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="64">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67">
         <v>7.7009999999999996</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="68">
         <v>499354</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="68">
         <v>2</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="68">
         <v>521</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="70">
         <v>2090</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="70">
         <v>5.587E-6</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="68">
         <v>1239</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="69" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="64">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67">
         <v>7.6989999999999998</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="68">
         <v>499227</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="68">
         <v>111</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="68">
         <v>503</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="70">
         <v>2160</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="70">
         <v>7.6699999999999994E-6</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="68">
         <v>91061</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="64">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67">
         <v>7.6959999999999997</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="68">
         <v>499060</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="68">
         <v>7</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="68">
         <v>473</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="70">
         <v>2300</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="70">
         <v>1.012E-5</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="68">
         <v>1385</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67">
         <v>7.694</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="68">
         <v>498930</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="68">
         <v>1</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="68">
         <v>444</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="70">
         <v>2450</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="70">
         <v>1.931E-5</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="68">
         <v>186817</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="69" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64">
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+      <c r="B11" s="77">
         <v>7.694</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="78">
         <v>498928</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="78">
         <v>498091</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="78">
         <v>440</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="79">
         <v>2470</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="79">
         <v>2.5469999999999998E-5</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="78">
         <v>1386</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="80" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="84" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="64">
+      <c r="A13" s="66"/>
+      <c r="B13" s="71">
+        <v>86.51</v>
+      </c>
+      <c r="C13" s="71">
+        <v>4753178</v>
+      </c>
+      <c r="D13" s="71">
+        <v>4753178</v>
+      </c>
+      <c r="E13" s="71">
+        <v>44443646</v>
+      </c>
+      <c r="F13" s="71">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G13" s="71">
+        <v>5.1779999999999999</v>
+      </c>
+      <c r="H13" s="71">
+        <v>0</v>
+      </c>
+      <c r="I13" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="71">
+        <v>13.49</v>
+      </c>
+      <c r="C14" s="71">
+        <v>741232</v>
+      </c>
+      <c r="D14" s="71">
+        <v>33005</v>
+      </c>
+      <c r="E14" s="71">
+        <v>4458</v>
+      </c>
+      <c r="F14" s="71">
+        <v>339</v>
+      </c>
+      <c r="G14" s="73">
+        <v>6.7290000000000003E-6</v>
+      </c>
+      <c r="H14" s="71">
+        <v>1</v>
+      </c>
+      <c r="I14" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="71">
+        <v>11.04</v>
+      </c>
+      <c r="C15" s="71">
+        <v>606341</v>
+      </c>
+      <c r="D15" s="71">
+        <v>1947</v>
+      </c>
+      <c r="E15" s="71">
+        <v>3411</v>
+      </c>
+      <c r="F15" s="71">
+        <v>365</v>
+      </c>
+      <c r="G15" s="73">
+        <v>5.2209999999999996E-6</v>
+      </c>
+      <c r="H15" s="71">
+        <v>131567</v>
+      </c>
+      <c r="I15" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="71">
+        <v>6.7409999999999997</v>
+      </c>
+      <c r="C16" s="71">
+        <v>370371</v>
+      </c>
+      <c r="D16" s="71">
+        <v>5615</v>
+      </c>
+      <c r="E16" s="71">
+        <v>2749</v>
+      </c>
+      <c r="F16" s="71">
+        <v>285</v>
+      </c>
+      <c r="G16" s="73">
+        <v>4.3529999999999997E-6</v>
+      </c>
+      <c r="H16" s="71">
+        <v>2</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="65">
-        <v>4753178</v>
-      </c>
-      <c r="D13" s="65">
-        <v>4753178</v>
-      </c>
-      <c r="E13" s="65">
-        <v>44443646</v>
-      </c>
-      <c r="F13" s="65">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="G13" s="65">
-        <v>5.1779999999999999</v>
-      </c>
-      <c r="H13" s="65">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="B17" s="71">
+        <v>6.532</v>
+      </c>
+      <c r="C17" s="71">
+        <v>358912</v>
+      </c>
+      <c r="D17" s="71">
+        <v>19</v>
+      </c>
+      <c r="E17" s="71">
+        <v>654</v>
+      </c>
+      <c r="F17" s="73">
+        <v>1170</v>
+      </c>
+      <c r="G17" s="73">
+        <v>2.6910000000000002E-6</v>
+      </c>
+      <c r="H17" s="71">
+        <v>1783272</v>
+      </c>
+      <c r="I17" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="71">
+        <v>6.4989999999999997</v>
+      </c>
+      <c r="C18" s="71">
+        <v>357057</v>
+      </c>
+      <c r="D18" s="71">
+        <v>4</v>
+      </c>
+      <c r="E18" s="71">
+        <v>487</v>
+      </c>
+      <c r="F18" s="73">
+        <v>1560</v>
+      </c>
+      <c r="G18" s="73">
+        <v>5.2220000000000001E-6</v>
+      </c>
+      <c r="H18" s="71">
+        <v>1239</v>
+      </c>
+      <c r="I18" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="71">
+        <v>6.4969999999999999</v>
+      </c>
+      <c r="C19" s="71">
+        <v>356962</v>
+      </c>
+      <c r="D19" s="71">
+        <v>51</v>
+      </c>
+      <c r="E19" s="71">
+        <v>472</v>
+      </c>
+      <c r="F19" s="73">
+        <v>1610</v>
+      </c>
+      <c r="G19" s="73">
+        <v>7.1969999999999999E-6</v>
+      </c>
+      <c r="H19" s="71">
+        <v>91061</v>
+      </c>
+      <c r="I19" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="66"/>
+      <c r="B20" s="71">
+        <v>6.4950000000000001</v>
+      </c>
+      <c r="C20" s="71">
+        <v>356864</v>
+      </c>
+      <c r="D20" s="71">
         <v>0</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="E20" s="71">
+        <v>432</v>
+      </c>
+      <c r="F20" s="73">
+        <v>1760</v>
+      </c>
+      <c r="G20" s="73">
+        <v>9.2439999999999999E-6</v>
+      </c>
+      <c r="H20" s="71">
+        <v>1385</v>
+      </c>
+      <c r="I20" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="B21" s="71">
+        <v>6.4930000000000003</v>
+      </c>
+      <c r="C21" s="71">
+        <v>356762</v>
+      </c>
+      <c r="D21" s="71">
+        <v>0</v>
+      </c>
+      <c r="E21" s="71">
+        <v>410</v>
+      </c>
+      <c r="F21" s="73">
+        <v>1850</v>
+      </c>
+      <c r="G21" s="73">
+        <v>1.783E-5</v>
+      </c>
+      <c r="H21" s="71">
+        <v>186817</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
+      <c r="B22" s="75">
+        <v>6.4930000000000003</v>
+      </c>
+      <c r="C22" s="75">
+        <v>356762</v>
+      </c>
+      <c r="D22" s="75">
+        <v>355984</v>
+      </c>
+      <c r="E22" s="75">
+        <v>409</v>
+      </c>
+      <c r="F22" s="81">
+        <v>1850</v>
+      </c>
+      <c r="G22" s="81">
+        <v>2.3669999999999999E-5</v>
+      </c>
+      <c r="H22" s="75">
+        <v>1386</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71">
+        <v>87.82</v>
+      </c>
+      <c r="C24" s="71">
+        <v>3634665</v>
+      </c>
+      <c r="D24" s="71">
+        <v>3634665</v>
+      </c>
+      <c r="E24" s="71">
+        <v>32052556</v>
+      </c>
+      <c r="F24" s="71">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G24" s="71">
+        <v>3.734</v>
+      </c>
+      <c r="H24" s="71">
+        <v>0</v>
+      </c>
+      <c r="I24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J24" s="72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="69" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="66"/>
+      <c r="B25" s="71">
+        <v>12.18</v>
+      </c>
+      <c r="C25" s="71">
+        <v>504300</v>
+      </c>
+      <c r="D25" s="71">
+        <v>35456</v>
+      </c>
+      <c r="E25" s="71">
+        <v>4203</v>
+      </c>
+      <c r="F25" s="71">
+        <v>231</v>
+      </c>
+      <c r="G25" s="73">
+        <v>6.3439999999999997E-6</v>
+      </c>
+      <c r="H25" s="71">
+        <v>1</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="66"/>
+      <c r="B26" s="71">
+        <v>8.8249999999999993</v>
+      </c>
+      <c r="C26" s="71">
+        <v>365271</v>
+      </c>
+      <c r="D26" s="71">
+        <v>959</v>
+      </c>
+      <c r="E26" s="71">
+        <v>3197</v>
+      </c>
+      <c r="F26" s="71">
+        <v>218</v>
+      </c>
+      <c r="G26" s="73">
+        <v>4.8940000000000001E-6</v>
+      </c>
+      <c r="H26" s="71">
+        <v>131567</v>
+      </c>
+      <c r="I26" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="66"/>
+      <c r="B27" s="71">
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="C27" s="71">
+        <v>271695</v>
+      </c>
+      <c r="D27" s="71">
+        <v>0</v>
+      </c>
+      <c r="E27" s="71">
+        <v>566</v>
+      </c>
+      <c r="F27" s="71">
+        <v>886</v>
+      </c>
+      <c r="G27" s="73">
+        <v>2.6080000000000001E-5</v>
+      </c>
+      <c r="H27" s="71">
+        <v>2157</v>
+      </c>
+      <c r="I27" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="66"/>
+      <c r="B28" s="71">
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="C28" s="71">
+        <v>271694</v>
+      </c>
+      <c r="D28" s="71">
+        <v>0</v>
+      </c>
+      <c r="E28" s="71">
+        <v>565</v>
+      </c>
+      <c r="F28" s="71">
+        <v>888</v>
+      </c>
+      <c r="G28" s="73">
+        <v>3.1099999999999997E-5</v>
+      </c>
+      <c r="H28" s="71">
+        <v>28890</v>
+      </c>
+      <c r="I28" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="66"/>
+      <c r="B29" s="71">
+        <v>6.5629999999999997</v>
+      </c>
+      <c r="C29" s="71">
+        <v>271660</v>
+      </c>
+      <c r="D29" s="71">
+        <v>0</v>
+      </c>
+      <c r="E29" s="71">
+        <v>549</v>
+      </c>
+      <c r="F29" s="71">
+        <v>914</v>
+      </c>
+      <c r="G29" s="71">
+        <v>4.8519999999999998E-4</v>
+      </c>
+      <c r="H29" s="71">
+        <v>183939</v>
+      </c>
+      <c r="I29" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="66"/>
+      <c r="B30" s="71">
+        <v>6.5629999999999997</v>
+      </c>
+      <c r="C30" s="71">
+        <v>271660</v>
+      </c>
+      <c r="D30" s="71">
+        <v>0</v>
+      </c>
+      <c r="E30" s="71">
+        <v>549</v>
+      </c>
+      <c r="F30" s="71">
+        <v>914</v>
+      </c>
+      <c r="G30" s="71">
+        <v>4.8519999999999998E-4</v>
+      </c>
+      <c r="H30" s="71">
+        <v>2182</v>
+      </c>
+      <c r="I30" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="66"/>
+      <c r="B31" s="71">
+        <v>6.5629999999999997</v>
+      </c>
+      <c r="C31" s="71">
+        <v>271658</v>
+      </c>
+      <c r="D31" s="71">
+        <v>337</v>
+      </c>
+      <c r="E31" s="71">
+        <v>546</v>
+      </c>
+      <c r="F31" s="71">
+        <v>919</v>
+      </c>
+      <c r="G31" s="71">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H31" s="71">
+        <v>196117</v>
+      </c>
+      <c r="I31" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="66"/>
+      <c r="B32" s="71">
+        <v>6.5549999999999997</v>
+      </c>
+      <c r="C32" s="71">
+        <v>271321</v>
+      </c>
+      <c r="D32" s="71">
+        <v>33315</v>
+      </c>
+      <c r="E32" s="71">
+        <v>545</v>
+      </c>
+      <c r="F32" s="71">
+        <v>919</v>
+      </c>
+      <c r="G32" s="71">
+        <v>1.2849999999999999E-3</v>
+      </c>
+      <c r="H32" s="71">
+        <v>196118</v>
+      </c>
+      <c r="I32" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="66"/>
+      <c r="B33" s="71">
+        <v>5.7489999999999997</v>
+      </c>
+      <c r="C33" s="71">
+        <v>237950</v>
+      </c>
+      <c r="D33" s="71">
+        <v>0</v>
+      </c>
+      <c r="E33" s="71">
+        <v>447</v>
+      </c>
+      <c r="F33" s="71">
+        <v>991</v>
+      </c>
+      <c r="G33" s="71">
+        <v>6.2110000000000004E-3</v>
+      </c>
+      <c r="H33" s="71">
+        <v>2190</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="74"/>
+      <c r="B34" s="75">
+        <v>5.7489999999999997</v>
+      </c>
+      <c r="C34" s="75">
+        <v>237950</v>
+      </c>
+      <c r="D34" s="75">
+        <v>237950</v>
+      </c>
+      <c r="E34" s="75">
+        <v>447</v>
+      </c>
+      <c r="F34" s="75">
+        <v>991</v>
+      </c>
+      <c r="G34" s="75">
+        <v>6.2110000000000004E-3</v>
+      </c>
+      <c r="H34" s="75">
+        <v>243232</v>
+      </c>
+      <c r="I34" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C35" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D35" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E35" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F35" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G35" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H35" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I35" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J35" s="86" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="64">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="66"/>
+      <c r="B36" s="71">
+        <v>87.7</v>
+      </c>
+      <c r="C36" s="71">
+        <v>4644190</v>
+      </c>
+      <c r="D36" s="71">
+        <v>4644190</v>
+      </c>
+      <c r="E36" s="71">
+        <v>44626315</v>
+      </c>
+      <c r="F36" s="71">
+        <v>4.76</v>
+      </c>
+      <c r="G36" s="71">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="H36" s="71">
+        <v>0</v>
+      </c>
+      <c r="I36" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="66"/>
+      <c r="B37" s="71">
+        <v>12.3</v>
+      </c>
+      <c r="C37" s="71">
+        <v>651084</v>
+      </c>
+      <c r="D37" s="71">
+        <v>53425</v>
+      </c>
+      <c r="E37" s="71">
+        <v>4575</v>
+      </c>
+      <c r="F37" s="71">
+        <v>284</v>
+      </c>
+      <c r="G37" s="73">
+        <v>6.9059999999999996E-6</v>
+      </c>
+      <c r="H37" s="71">
+        <v>1</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="66"/>
+      <c r="B38" s="71">
+        <v>8.3930000000000007</v>
+      </c>
+      <c r="C38" s="71">
+        <v>444422</v>
+      </c>
+      <c r="D38" s="71">
+        <v>2326</v>
+      </c>
+      <c r="E38" s="71">
+        <v>3467</v>
+      </c>
+      <c r="F38" s="71">
+        <v>250</v>
+      </c>
+      <c r="G38" s="73">
+        <v>5.3070000000000002E-6</v>
+      </c>
+      <c r="H38" s="71">
+        <v>131567</v>
+      </c>
+      <c r="I38" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="66"/>
+      <c r="B39" s="71">
+        <v>6.0179999999999998</v>
+      </c>
+      <c r="C39" s="71">
+        <v>318675</v>
+      </c>
+      <c r="D39" s="71">
+        <v>0</v>
+      </c>
+      <c r="E39" s="71">
+        <v>568</v>
+      </c>
+      <c r="F39" s="73">
+        <v>1050</v>
+      </c>
+      <c r="G39" s="73">
+        <v>2.6169999999999998E-5</v>
+      </c>
+      <c r="H39" s="71">
+        <v>2157</v>
+      </c>
+      <c r="I39" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="66"/>
+      <c r="B40" s="71">
+        <v>6.0179999999999998</v>
+      </c>
+      <c r="C40" s="71">
+        <v>318675</v>
+      </c>
+      <c r="D40" s="71">
+        <v>0</v>
+      </c>
+      <c r="E40" s="71">
+        <v>568</v>
+      </c>
+      <c r="F40" s="73">
+        <v>1050</v>
+      </c>
+      <c r="G40" s="73">
+        <v>3.1269999999999997E-5</v>
+      </c>
+      <c r="H40" s="71">
+        <v>28890</v>
+      </c>
+      <c r="I40" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="66"/>
+      <c r="B41" s="71">
+        <v>6.016</v>
+      </c>
+      <c r="C41" s="71">
+        <v>318554</v>
+      </c>
+      <c r="D41" s="71">
+        <v>0</v>
+      </c>
+      <c r="E41" s="71">
+        <v>532</v>
+      </c>
+      <c r="F41" s="73">
+        <v>1130</v>
+      </c>
+      <c r="G41" s="71">
+        <v>4.7009999999999999E-4</v>
+      </c>
+      <c r="H41" s="71">
+        <v>183939</v>
+      </c>
+      <c r="I41" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="66"/>
+      <c r="B42" s="71">
+        <v>6.016</v>
+      </c>
+      <c r="C42" s="71">
+        <v>318554</v>
+      </c>
+      <c r="D42" s="71">
+        <v>0</v>
+      </c>
+      <c r="E42" s="71">
+        <v>532</v>
+      </c>
+      <c r="F42" s="73">
+        <v>1130</v>
+      </c>
+      <c r="G42" s="71">
+        <v>4.7009999999999999E-4</v>
+      </c>
+      <c r="H42" s="71">
+        <v>2182</v>
+      </c>
+      <c r="I42" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="66"/>
+      <c r="B43" s="71">
+        <v>6.016</v>
+      </c>
+      <c r="C43" s="71">
+        <v>318551</v>
+      </c>
+      <c r="D43" s="71">
+        <v>231</v>
+      </c>
+      <c r="E43" s="71">
+        <v>528</v>
+      </c>
+      <c r="F43" s="73">
+        <v>1130</v>
+      </c>
+      <c r="G43" s="71">
+        <v>1.044E-3</v>
+      </c>
+      <c r="H43" s="71">
+        <v>196117</v>
+      </c>
+      <c r="I43" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" s="72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="66"/>
+      <c r="B44" s="71">
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="C44" s="71">
+        <v>318320</v>
+      </c>
+      <c r="D44" s="71">
+        <v>37543</v>
+      </c>
+      <c r="E44" s="71">
+        <v>527</v>
+      </c>
+      <c r="F44" s="73">
+        <v>1130</v>
+      </c>
+      <c r="G44" s="71">
+        <v>1.242E-3</v>
+      </c>
+      <c r="H44" s="71">
+        <v>196118</v>
+      </c>
+      <c r="I44" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="66"/>
+      <c r="B45" s="71">
+        <v>5.3019999999999996</v>
+      </c>
+      <c r="C45" s="71">
+        <v>280739</v>
+      </c>
+      <c r="D45" s="71">
+        <v>0</v>
+      </c>
+      <c r="E45" s="71">
+        <v>437</v>
+      </c>
+      <c r="F45" s="73">
+        <v>1200</v>
+      </c>
+      <c r="G45" s="71">
+        <v>6.0720000000000001E-3</v>
+      </c>
+      <c r="H45" s="71">
+        <v>2190</v>
+      </c>
+      <c r="I45" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="74"/>
+      <c r="B46" s="75">
+        <v>5.3019999999999996</v>
+      </c>
+      <c r="C46" s="75">
+        <v>280739</v>
+      </c>
+      <c r="D46" s="75">
+        <v>280739</v>
+      </c>
+      <c r="E46" s="75">
+        <v>437</v>
+      </c>
+      <c r="F46" s="81">
+        <v>1200</v>
+      </c>
+      <c r="G46" s="75">
+        <v>6.0720000000000001E-3</v>
+      </c>
+      <c r="H46" s="75">
+        <v>243232</v>
+      </c>
+      <c r="I46" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="66"/>
+      <c r="B48" s="87">
+        <v>85.88</v>
+      </c>
+      <c r="C48" s="87">
+        <v>5165665</v>
+      </c>
+      <c r="D48" s="87">
+        <v>5165665</v>
+      </c>
+      <c r="E48" s="87">
+        <v>30961750</v>
+      </c>
+      <c r="F48" s="87">
+        <v>7.68</v>
+      </c>
+      <c r="G48" s="87">
+        <v>3.6070000000000002</v>
+      </c>
+      <c r="H48" s="87">
+        <v>0</v>
+      </c>
+      <c r="I48" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="66"/>
+      <c r="B49" s="87">
+        <v>14.12</v>
+      </c>
+      <c r="C49" s="87">
+        <v>849250</v>
+      </c>
+      <c r="D49" s="87">
+        <v>39269</v>
+      </c>
+      <c r="E49" s="87">
+        <v>4094</v>
+      </c>
+      <c r="F49" s="87">
+        <v>435</v>
+      </c>
+      <c r="G49" s="89">
+        <v>6.1800000000000001E-6</v>
+      </c>
+      <c r="H49" s="87">
+        <v>1</v>
+      </c>
+      <c r="I49" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="66"/>
+      <c r="B50" s="87">
+        <v>11.47</v>
+      </c>
+      <c r="C50" s="87">
+        <v>689648</v>
+      </c>
+      <c r="D50" s="87">
+        <v>1785</v>
+      </c>
+      <c r="E50" s="87">
+        <v>3067</v>
+      </c>
+      <c r="F50" s="87">
+        <v>477</v>
+      </c>
+      <c r="G50" s="89">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="H50" s="87">
+        <v>131567</v>
+      </c>
+      <c r="I50" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="66"/>
+      <c r="B51" s="87">
+        <v>7.165</v>
+      </c>
+      <c r="C51" s="87">
+        <v>430963</v>
+      </c>
+      <c r="D51" s="87">
+        <v>6085</v>
+      </c>
+      <c r="E51" s="87">
+        <v>2414</v>
+      </c>
+      <c r="F51" s="87">
+        <v>389</v>
+      </c>
+      <c r="G51" s="89">
+        <v>3.8199999999999998E-6</v>
+      </c>
+      <c r="H51" s="87">
+        <v>2</v>
+      </c>
+      <c r="I51" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" s="88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="66"/>
+      <c r="B52" s="87">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="C52" s="87">
+        <v>420272</v>
+      </c>
+      <c r="D52" s="87">
+        <v>34</v>
+      </c>
+      <c r="E52" s="87">
+        <v>612</v>
+      </c>
+      <c r="F52" s="89">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="89">
+        <v>2.52E-6</v>
+      </c>
+      <c r="H52" s="87">
+        <v>1783272</v>
+      </c>
+      <c r="I52" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" s="88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="66"/>
+      <c r="B53" s="87">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="C53" s="87">
+        <v>418359</v>
+      </c>
+      <c r="D53" s="87">
+        <v>1</v>
+      </c>
+      <c r="E53" s="87">
+        <v>443</v>
+      </c>
+      <c r="F53" s="89">
+        <v>2070</v>
+      </c>
+      <c r="G53" s="89">
+        <v>4.7500000000000003E-6</v>
+      </c>
+      <c r="H53" s="87">
+        <v>1239</v>
+      </c>
+      <c r="I53" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="66"/>
+      <c r="B54" s="87">
+        <v>6.9530000000000003</v>
+      </c>
+      <c r="C54" s="87">
+        <v>418241</v>
+      </c>
+      <c r="D54" s="87">
+        <v>31</v>
+      </c>
+      <c r="E54" s="87">
+        <v>436</v>
+      </c>
+      <c r="F54" s="89">
+        <v>2100</v>
+      </c>
+      <c r="G54" s="89">
+        <v>6.6499999999999999E-6</v>
+      </c>
+      <c r="H54" s="87">
+        <v>91061</v>
+      </c>
+      <c r="I54" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="66"/>
+      <c r="B55" s="87">
+        <v>6.952</v>
+      </c>
+      <c r="C55" s="87">
+        <v>418181</v>
+      </c>
+      <c r="D55" s="87">
+        <v>1</v>
+      </c>
+      <c r="E55" s="87">
+        <v>424</v>
+      </c>
+      <c r="F55" s="89">
+        <v>2160</v>
+      </c>
+      <c r="G55" s="89">
+        <v>9.0699999999999996E-6</v>
+      </c>
+      <c r="H55" s="87">
+        <v>1385</v>
+      </c>
+      <c r="I55" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="66"/>
+      <c r="B56" s="87">
+        <v>6.9509999999999996</v>
+      </c>
+      <c r="C56" s="87">
+        <v>418077</v>
+      </c>
+      <c r="D56" s="87">
+        <v>1</v>
+      </c>
+      <c r="E56" s="87">
+        <v>405</v>
+      </c>
+      <c r="F56" s="89">
+        <v>2260</v>
+      </c>
+      <c r="G56" s="89">
+        <v>1.7600000000000001E-5</v>
+      </c>
+      <c r="H56" s="87">
+        <v>186817</v>
+      </c>
+      <c r="I56" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56" s="88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="74"/>
+      <c r="B57" s="90">
+        <v>6.9509999999999996</v>
+      </c>
+      <c r="C57" s="90">
+        <v>418075</v>
+      </c>
+      <c r="D57" s="90">
+        <v>416682</v>
+      </c>
+      <c r="E57" s="90">
+        <v>402</v>
+      </c>
+      <c r="F57" s="91">
+        <v>2280</v>
+      </c>
+      <c r="G57" s="91">
+        <v>2.3300000000000001E-5</v>
+      </c>
+      <c r="H57" s="90">
+        <v>1386</v>
+      </c>
+      <c r="I57" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="J57" s="92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="66"/>
+      <c r="B59" s="87">
+        <v>88.04</v>
+      </c>
+      <c r="C59" s="87">
+        <v>4762430</v>
+      </c>
+      <c r="D59" s="87">
+        <v>4762430</v>
+      </c>
+      <c r="E59" s="87">
+        <v>34506855</v>
+      </c>
+      <c r="F59" s="87">
+        <v>5.79</v>
+      </c>
+      <c r="G59" s="87">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H59" s="87">
+        <v>0</v>
+      </c>
+      <c r="I59" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="66"/>
+      <c r="B60" s="87">
+        <v>11.96</v>
+      </c>
+      <c r="C60" s="87">
+        <v>646952</v>
+      </c>
+      <c r="D60" s="87">
+        <v>32476</v>
+      </c>
+      <c r="E60" s="87">
+        <v>4104</v>
+      </c>
+      <c r="F60" s="87">
+        <v>329</v>
+      </c>
+      <c r="G60" s="89">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="H60" s="87">
+        <v>1</v>
+      </c>
+      <c r="I60" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="66"/>
+      <c r="B61" s="87">
+        <v>9.4939999999999998</v>
+      </c>
+      <c r="C61" s="87">
+        <v>513581</v>
+      </c>
+      <c r="D61" s="87">
+        <v>1749</v>
+      </c>
+      <c r="E61" s="87">
+        <v>3069</v>
+      </c>
+      <c r="F61" s="87">
+        <v>354</v>
+      </c>
+      <c r="G61" s="89">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="H61" s="87">
+        <v>131567</v>
+      </c>
+      <c r="I61" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J61" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="66"/>
+      <c r="B62" s="87">
+        <v>5.9029999999999996</v>
+      </c>
+      <c r="C62" s="87">
+        <v>319291</v>
+      </c>
+      <c r="D62" s="87">
+        <v>5184</v>
+      </c>
+      <c r="E62" s="87">
+        <v>2448</v>
+      </c>
+      <c r="F62" s="87">
+        <v>283</v>
+      </c>
+      <c r="G62" s="89">
+        <v>3.8800000000000001E-6</v>
+      </c>
+      <c r="H62" s="87">
+        <v>2</v>
+      </c>
+      <c r="I62" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J62" s="88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="66"/>
+      <c r="B63" s="87">
+        <v>5.6950000000000003</v>
+      </c>
+      <c r="C63" s="87">
+        <v>308063</v>
+      </c>
+      <c r="D63" s="87">
+        <v>26</v>
+      </c>
+      <c r="E63" s="87">
+        <v>625</v>
+      </c>
+      <c r="F63" s="89">
+        <v>1080</v>
+      </c>
+      <c r="G63" s="89">
+        <v>2.57E-6</v>
+      </c>
+      <c r="H63" s="87">
+        <v>1783272</v>
+      </c>
+      <c r="I63" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63" s="88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="66"/>
+      <c r="B64" s="87">
+        <v>5.657</v>
+      </c>
+      <c r="C64" s="87">
+        <v>305989</v>
+      </c>
+      <c r="D64" s="87">
+        <v>1</v>
+      </c>
+      <c r="E64" s="87">
+        <v>463</v>
+      </c>
+      <c r="F64" s="89">
+        <v>1450</v>
+      </c>
+      <c r="G64" s="89">
+        <v>4.9699999999999998E-6</v>
+      </c>
+      <c r="H64" s="87">
+        <v>1239</v>
+      </c>
+      <c r="I64" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="J64" s="88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="66"/>
+      <c r="B65" s="87">
+        <v>5.6550000000000002</v>
+      </c>
+      <c r="C65" s="87">
+        <v>305888</v>
+      </c>
+      <c r="D65" s="87">
+        <v>34</v>
+      </c>
+      <c r="E65" s="87">
+        <v>451</v>
+      </c>
+      <c r="F65" s="89">
+        <v>1480</v>
+      </c>
+      <c r="G65" s="89">
+        <v>6.8800000000000002E-6</v>
+      </c>
+      <c r="H65" s="87">
+        <v>91061</v>
+      </c>
+      <c r="I65" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" s="88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="66"/>
+      <c r="B66" s="87">
+        <v>5.6539999999999999</v>
+      </c>
+      <c r="C66" s="87">
+        <v>305825</v>
+      </c>
+      <c r="D66" s="87">
+        <v>7</v>
+      </c>
+      <c r="E66" s="87">
+        <v>434</v>
+      </c>
+      <c r="F66" s="89">
+        <v>1540</v>
+      </c>
+      <c r="G66" s="89">
+        <v>9.2900000000000008E-6</v>
+      </c>
+      <c r="H66" s="87">
+        <v>1385</v>
+      </c>
+      <c r="I66" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J66" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="66"/>
+      <c r="B67" s="87">
+        <v>5.6509999999999998</v>
+      </c>
+      <c r="C67" s="87">
+        <v>305706</v>
+      </c>
+      <c r="D67" s="87">
+        <v>0</v>
+      </c>
+      <c r="E67" s="87">
+        <v>417</v>
+      </c>
+      <c r="F67" s="89">
+        <v>1600</v>
+      </c>
+      <c r="G67" s="89">
+        <v>1.8099999999999999E-5</v>
+      </c>
+      <c r="H67" s="87">
+        <v>186817</v>
+      </c>
+      <c r="I67" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J67" s="88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="74"/>
+      <c r="B68" s="90">
+        <v>5.6509999999999998</v>
+      </c>
+      <c r="C68" s="90">
+        <v>305706</v>
+      </c>
+      <c r="D68" s="90">
+        <v>304377</v>
+      </c>
+      <c r="E68" s="90">
+        <v>416</v>
+      </c>
+      <c r="F68" s="91">
+        <v>1610</v>
+      </c>
+      <c r="G68" s="91">
+        <v>2.41E-5</v>
+      </c>
+      <c r="H68" s="90">
+        <v>1386</v>
+      </c>
+      <c r="I68" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="J68" s="92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="66"/>
+      <c r="B70" s="87">
+        <v>87.55</v>
+      </c>
+      <c r="C70" s="87">
+        <v>3940883</v>
+      </c>
+      <c r="D70" s="87">
+        <v>3940883</v>
+      </c>
+      <c r="E70" s="87">
+        <v>25238264</v>
+      </c>
+      <c r="F70" s="87">
+        <v>6.69</v>
+      </c>
+      <c r="G70" s="87">
+        <v>2.94</v>
+      </c>
+      <c r="H70" s="87">
+        <v>0</v>
+      </c>
+      <c r="I70" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J70" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="66"/>
+      <c r="B71" s="87">
+        <v>12.45</v>
+      </c>
+      <c r="C71" s="87">
+        <v>560214</v>
+      </c>
+      <c r="D71" s="87">
+        <v>21800</v>
+      </c>
+      <c r="E71" s="87">
+        <v>4008</v>
+      </c>
+      <c r="F71" s="87">
+        <v>292</v>
+      </c>
+      <c r="G71" s="89">
+        <v>6.0499999999999997E-6</v>
+      </c>
+      <c r="H71" s="87">
+        <v>1</v>
+      </c>
+      <c r="I71" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J71" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="66"/>
+      <c r="B72" s="87">
+        <v>10.31</v>
+      </c>
+      <c r="C72" s="87">
+        <v>464235</v>
+      </c>
+      <c r="D72" s="87">
+        <v>1310</v>
+      </c>
+      <c r="E72" s="87">
+        <v>3034</v>
+      </c>
+      <c r="F72" s="87">
+        <v>323</v>
+      </c>
+      <c r="G72" s="89">
+        <v>4.6399999999999996E-6</v>
+      </c>
+      <c r="H72" s="87">
+        <v>131567</v>
+      </c>
+      <c r="I72" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="66"/>
+      <c r="B73" s="87">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="C73" s="87">
+        <v>288348</v>
+      </c>
+      <c r="D73" s="87">
+        <v>4554</v>
+      </c>
+      <c r="E73" s="87">
+        <v>2412</v>
+      </c>
+      <c r="F73" s="87">
+        <v>260</v>
+      </c>
+      <c r="G73" s="89">
+        <v>3.8199999999999998E-6</v>
+      </c>
+      <c r="H73" s="87">
+        <v>2</v>
+      </c>
+      <c r="I73" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J73" s="88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="66"/>
+      <c r="B74" s="87">
+        <v>6.2220000000000004</v>
+      </c>
+      <c r="C74" s="87">
+        <v>280058</v>
+      </c>
+      <c r="D74" s="87">
+        <v>14</v>
+      </c>
+      <c r="E74" s="87">
+        <v>674</v>
+      </c>
+      <c r="F74" s="87">
+        <v>907</v>
+      </c>
+      <c r="G74" s="89">
+        <v>2.7700000000000002E-6</v>
+      </c>
+      <c r="H74" s="87">
+        <v>1783272</v>
+      </c>
+      <c r="I74" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74" s="88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="66"/>
+      <c r="B75" s="87">
+        <v>6.1909999999999998</v>
+      </c>
+      <c r="C75" s="87">
+        <v>278683</v>
+      </c>
+      <c r="D75" s="87">
+        <v>4</v>
+      </c>
+      <c r="E75" s="87">
+        <v>459</v>
+      </c>
+      <c r="F75" s="89">
+        <v>1330</v>
+      </c>
+      <c r="G75" s="89">
+        <v>4.9200000000000003E-6</v>
+      </c>
+      <c r="H75" s="87">
+        <v>1239</v>
+      </c>
+      <c r="I75" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="J75" s="88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="66"/>
+      <c r="B76" s="87">
+        <v>6.19</v>
+      </c>
+      <c r="C76" s="87">
+        <v>278609</v>
+      </c>
+      <c r="D76" s="87">
+        <v>38</v>
+      </c>
+      <c r="E76" s="87">
+        <v>444</v>
+      </c>
+      <c r="F76" s="89">
+        <v>1370</v>
+      </c>
+      <c r="G76" s="89">
+        <v>6.7700000000000004E-6</v>
+      </c>
+      <c r="H76" s="87">
+        <v>91061</v>
+      </c>
+      <c r="I76" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="66"/>
+      <c r="B77" s="87">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="C77" s="87">
+        <v>278542</v>
+      </c>
+      <c r="D77" s="87">
+        <v>1</v>
+      </c>
+      <c r="E77" s="87">
+        <v>423</v>
+      </c>
+      <c r="F77" s="89">
+        <v>1440</v>
+      </c>
+      <c r="G77" s="89">
+        <v>9.0499999999999997E-6</v>
+      </c>
+      <c r="H77" s="87">
+        <v>1385</v>
+      </c>
+      <c r="I77" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J77" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="66"/>
+      <c r="B78" s="87">
+        <v>6.1870000000000003</v>
+      </c>
+      <c r="C78" s="87">
+        <v>278461</v>
+      </c>
+      <c r="D78" s="87">
+        <v>0</v>
+      </c>
+      <c r="E78" s="87">
+        <v>397</v>
+      </c>
+      <c r="F78" s="89">
+        <v>1530</v>
+      </c>
+      <c r="G78" s="89">
+        <v>1.73E-5</v>
+      </c>
+      <c r="H78" s="87">
+        <v>186817</v>
+      </c>
+      <c r="I78" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J78" s="88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="74"/>
+      <c r="B79" s="90">
+        <v>6.1859999999999999</v>
+      </c>
+      <c r="C79" s="90">
+        <v>278459</v>
+      </c>
+      <c r="D79" s="90">
+        <v>277026</v>
+      </c>
+      <c r="E79" s="90">
+        <v>391</v>
+      </c>
+      <c r="F79" s="91">
+        <v>1560</v>
+      </c>
+      <c r="G79" s="91">
+        <v>2.26E-5</v>
+      </c>
+      <c r="H79" s="90">
+        <v>1386</v>
+      </c>
+      <c r="I79" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="J79" s="92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I80" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J80" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="66"/>
+      <c r="B81" s="87">
+        <v>82.67</v>
+      </c>
+      <c r="C81" s="87">
+        <v>3815108</v>
+      </c>
+      <c r="D81" s="87">
+        <v>3815108</v>
+      </c>
+      <c r="E81" s="87">
+        <v>26753667</v>
+      </c>
+      <c r="F81" s="87">
+        <v>6.89</v>
+      </c>
+      <c r="G81" s="87">
+        <v>3.117</v>
+      </c>
+      <c r="H81" s="87">
+        <v>0</v>
+      </c>
+      <c r="I81" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J81" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="66"/>
+      <c r="B82" s="87">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="C82" s="87">
+        <v>799914</v>
+      </c>
+      <c r="D82" s="87">
+        <v>42094</v>
+      </c>
+      <c r="E82" s="87">
+        <v>4449</v>
+      </c>
+      <c r="F82" s="87">
+        <v>380</v>
+      </c>
+      <c r="G82" s="89">
+        <v>6.72E-6</v>
+      </c>
+      <c r="H82" s="87">
+        <v>1</v>
+      </c>
+      <c r="I82" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="66"/>
+      <c r="B83" s="87">
+        <v>13.75</v>
+      </c>
+      <c r="C83" s="87">
+        <v>634769</v>
+      </c>
+      <c r="D83" s="87">
+        <v>2344</v>
+      </c>
+      <c r="E83" s="87">
+        <v>3419</v>
+      </c>
+      <c r="F83" s="87">
+        <v>396</v>
+      </c>
+      <c r="G83" s="89">
+        <v>5.2299999999999999E-6</v>
+      </c>
+      <c r="H83" s="87">
+        <v>131567</v>
+      </c>
+      <c r="I83" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="66"/>
+      <c r="B84" s="87">
+        <v>8.5449999999999999</v>
+      </c>
+      <c r="C84" s="87">
+        <v>394349</v>
+      </c>
+      <c r="D84" s="87">
+        <v>6410</v>
+      </c>
+      <c r="E84" s="87">
+        <v>2745</v>
+      </c>
+      <c r="F84" s="87">
+        <v>314</v>
+      </c>
+      <c r="G84" s="89">
+        <v>4.3499999999999999E-6</v>
+      </c>
+      <c r="H84" s="87">
+        <v>2</v>
+      </c>
+      <c r="I84" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J84" s="88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="66"/>
+      <c r="B85" s="87">
+        <v>8.266</v>
+      </c>
+      <c r="C85" s="87">
+        <v>381457</v>
+      </c>
+      <c r="D85" s="87">
+        <v>26</v>
+      </c>
+      <c r="E85" s="87">
+        <v>820</v>
+      </c>
+      <c r="F85" s="89">
+        <v>1020</v>
+      </c>
+      <c r="G85" s="89">
+        <v>3.3699999999999999E-6</v>
+      </c>
+      <c r="H85" s="87">
+        <v>1783272</v>
+      </c>
+      <c r="I85" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J85" s="88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="66"/>
+      <c r="B86" s="87">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="C86" s="87">
+        <v>378772</v>
+      </c>
+      <c r="D86" s="87">
+        <v>5</v>
+      </c>
+      <c r="E86" s="87">
+        <v>622</v>
+      </c>
+      <c r="F86" s="89">
+        <v>1340</v>
+      </c>
+      <c r="G86" s="89">
+        <v>6.6699999999999997E-6</v>
+      </c>
+      <c r="H86" s="87">
+        <v>1239</v>
+      </c>
+      <c r="I86" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="J86" s="88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="66"/>
+      <c r="B87" s="87">
+        <v>8.2050000000000001</v>
+      </c>
+      <c r="C87" s="87">
+        <v>378659</v>
+      </c>
+      <c r="D87" s="87">
+        <v>67</v>
+      </c>
+      <c r="E87" s="87">
+        <v>609</v>
+      </c>
+      <c r="F87" s="89">
+        <v>1370</v>
+      </c>
+      <c r="G87" s="89">
+        <v>9.2900000000000008E-6</v>
+      </c>
+      <c r="H87" s="87">
+        <v>91061</v>
+      </c>
+      <c r="I87" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="66"/>
+      <c r="B88" s="87">
+        <v>8.2010000000000005</v>
+      </c>
+      <c r="C88" s="87">
+        <v>378482</v>
+      </c>
+      <c r="D88" s="87">
+        <v>4</v>
+      </c>
+      <c r="E88" s="87">
+        <v>447</v>
+      </c>
+      <c r="F88" s="89">
+        <v>1870</v>
+      </c>
+      <c r="G88" s="89">
+        <v>9.5699999999999999E-6</v>
+      </c>
+      <c r="H88" s="87">
+        <v>1385</v>
+      </c>
+      <c r="I88" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J88" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="66"/>
+      <c r="B89" s="87">
+        <v>8.1980000000000004</v>
+      </c>
+      <c r="C89" s="87">
+        <v>378349</v>
+      </c>
+      <c r="D89" s="87">
+        <v>1</v>
+      </c>
+      <c r="E89" s="87">
+        <v>426</v>
+      </c>
+      <c r="F89" s="89">
+        <v>1960</v>
+      </c>
+      <c r="G89" s="89">
+        <v>1.8499999999999999E-5</v>
+      </c>
+      <c r="H89" s="87">
+        <v>186817</v>
+      </c>
+      <c r="I89" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J89" s="88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="74"/>
+      <c r="B90" s="90">
+        <v>8.1980000000000004</v>
+      </c>
+      <c r="C90" s="90">
+        <v>378347</v>
+      </c>
+      <c r="D90" s="90">
+        <v>376462</v>
+      </c>
+      <c r="E90" s="90">
+        <v>424</v>
+      </c>
+      <c r="F90" s="91">
+        <v>1970</v>
+      </c>
+      <c r="G90" s="91">
+        <v>2.4499999999999999E-5</v>
+      </c>
+      <c r="H90" s="90">
+        <v>1386</v>
+      </c>
+      <c r="I90" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="J90" s="92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G91" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I91" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J91" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="66"/>
+      <c r="B92" s="87">
+        <v>89.96</v>
+      </c>
+      <c r="C92" s="87">
+        <v>4908981</v>
+      </c>
+      <c r="D92" s="87">
+        <v>4908981</v>
+      </c>
+      <c r="E92" s="87">
+        <v>40052870</v>
+      </c>
+      <c r="F92" s="87">
+        <v>5.09</v>
+      </c>
+      <c r="G92" s="87">
+        <v>4.6660000000000004</v>
+      </c>
+      <c r="H92" s="87">
+        <v>0</v>
+      </c>
+      <c r="I92" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J92" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="66"/>
+      <c r="B93" s="87">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="C93" s="87">
+        <v>547853</v>
+      </c>
+      <c r="D93" s="87">
+        <v>43463</v>
+      </c>
+      <c r="E93" s="87">
+        <v>8079</v>
+      </c>
+      <c r="F93" s="87">
+        <v>128</v>
+      </c>
+      <c r="G93" s="89">
+        <v>1.22E-5</v>
+      </c>
+      <c r="H93" s="87">
+        <v>1</v>
+      </c>
+      <c r="I93" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J93" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="66"/>
+      <c r="B94" s="87">
+        <v>7.3109999999999999</v>
+      </c>
+      <c r="C94" s="87">
+        <v>398954</v>
+      </c>
+      <c r="D94" s="87">
+        <v>4708</v>
+      </c>
+      <c r="E94" s="87">
+        <v>6881</v>
+      </c>
+      <c r="F94" s="87">
+        <v>106</v>
+      </c>
+      <c r="G94" s="89">
+        <v>1.0499999999999999E-5</v>
+      </c>
+      <c r="H94" s="87">
+        <v>131567</v>
+      </c>
+      <c r="I94" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="66"/>
+      <c r="B95" s="87">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="C95" s="87">
+        <v>224144</v>
+      </c>
+      <c r="D95" s="87">
+        <v>6455</v>
+      </c>
+      <c r="E95" s="87">
+        <v>6321</v>
+      </c>
+      <c r="F95" s="87">
+        <v>64.2</v>
+      </c>
+      <c r="G95" s="89">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H95" s="87">
+        <v>2</v>
+      </c>
+      <c r="I95" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J95" s="88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="66"/>
+      <c r="B96" s="87">
+        <v>2.581</v>
+      </c>
+      <c r="C96" s="87">
+        <v>140864</v>
+      </c>
+      <c r="D96" s="87">
+        <v>385</v>
+      </c>
+      <c r="E96" s="87">
+        <v>5158</v>
+      </c>
+      <c r="F96" s="87">
+        <v>46.3</v>
+      </c>
+      <c r="G96" s="89">
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="H96" s="87">
+        <v>1224</v>
+      </c>
+      <c r="I96" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="J96" s="88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="66"/>
+      <c r="B97" s="87">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="C97" s="87">
+        <v>138753</v>
+      </c>
+      <c r="D97" s="87">
+        <v>215</v>
+      </c>
+      <c r="E97" s="87">
+        <v>4777</v>
+      </c>
+      <c r="F97" s="87">
+        <v>49.3</v>
+      </c>
+      <c r="G97" s="89">
+        <v>3.1300000000000002E-5</v>
+      </c>
+      <c r="H97" s="87">
+        <v>1236</v>
+      </c>
+      <c r="I97" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J97" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="74"/>
+      <c r="B98" s="90">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="C98" s="90">
+        <v>133950</v>
+      </c>
+      <c r="D98" s="90">
+        <v>94668</v>
+      </c>
+      <c r="E98" s="90">
+        <v>31</v>
+      </c>
+      <c r="F98" s="91">
+        <v>7330</v>
+      </c>
+      <c r="G98" s="91">
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="H98" s="90">
+        <v>135619</v>
+      </c>
+      <c r="I98" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="J98" s="92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F99" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J99" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="66"/>
+      <c r="B100" s="71">
+        <v>87.21</v>
+      </c>
+      <c r="C100" s="71">
+        <v>4193516</v>
+      </c>
+      <c r="D100" s="71">
+        <v>4193516</v>
+      </c>
+      <c r="E100" s="71">
+        <v>42737122</v>
+      </c>
+      <c r="F100" s="71">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G100" s="71">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="H100" s="71">
+        <v>0</v>
+      </c>
+      <c r="I100" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J100" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="66"/>
+      <c r="B101" s="71">
+        <v>12.79</v>
+      </c>
+      <c r="C101" s="71">
+        <v>614759</v>
+      </c>
+      <c r="D101" s="71">
+        <v>34044</v>
+      </c>
+      <c r="E101" s="71">
+        <v>3903</v>
+      </c>
+      <c r="F101" s="71">
+        <v>286</v>
+      </c>
+      <c r="G101" s="73">
+        <v>5.891E-6</v>
+      </c>
+      <c r="H101" s="71">
+        <v>1</v>
+      </c>
+      <c r="I101" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J101" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="66"/>
+      <c r="B102" s="71">
+        <v>10.37</v>
+      </c>
+      <c r="C102" s="71">
+        <v>498498</v>
+      </c>
+      <c r="D102" s="71">
+        <v>5493</v>
+      </c>
+      <c r="E102" s="71">
+        <v>2815</v>
+      </c>
+      <c r="F102" s="71">
+        <v>314</v>
+      </c>
+      <c r="G102" s="73">
+        <v>4.3089999999999997E-6</v>
+      </c>
+      <c r="H102" s="71">
+        <v>131567</v>
+      </c>
+      <c r="I102" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J102" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="66"/>
+      <c r="B103" s="71">
+        <v>7.3579999999999997</v>
+      </c>
+      <c r="C103" s="71">
+        <v>353776</v>
+      </c>
+      <c r="D103" s="71">
+        <v>6720</v>
+      </c>
+      <c r="E103" s="71">
+        <v>2290</v>
+      </c>
+      <c r="F103" s="71">
+        <v>268</v>
+      </c>
+      <c r="G103" s="73">
+        <v>3.6260000000000001E-6</v>
+      </c>
+      <c r="H103" s="71">
+        <v>2</v>
+      </c>
+      <c r="I103" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J103" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="65">
-        <v>3634665</v>
-      </c>
-      <c r="D15" s="65">
-        <v>3634665</v>
-      </c>
-      <c r="E15" s="65">
-        <v>32052556</v>
-      </c>
-      <c r="F15" s="65">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G15" s="65">
-        <v>3.734</v>
-      </c>
-      <c r="H15" s="65">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="66"/>
+      <c r="B104" s="71">
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="C104" s="71">
+        <v>282950</v>
+      </c>
+      <c r="D104" s="71">
+        <v>466</v>
+      </c>
+      <c r="E104" s="71">
+        <v>1086</v>
+      </c>
+      <c r="F104" s="71">
+        <v>437</v>
+      </c>
+      <c r="G104" s="73">
+        <v>3.4180000000000001E-6</v>
+      </c>
+      <c r="H104" s="71">
+        <v>1224</v>
+      </c>
+      <c r="I104" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J104" s="72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="66"/>
+      <c r="B105" s="71">
+        <v>5.8360000000000003</v>
+      </c>
+      <c r="C105" s="71">
+        <v>280614</v>
+      </c>
+      <c r="D105" s="71">
+        <v>235</v>
+      </c>
+      <c r="E105" s="71">
+        <v>788</v>
+      </c>
+      <c r="F105" s="71">
+        <v>598</v>
+      </c>
+      <c r="G105" s="73">
+        <v>5.1549999999999998E-6</v>
+      </c>
+      <c r="H105" s="71">
+        <v>1236</v>
+      </c>
+      <c r="I105" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J105" s="72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="66"/>
+      <c r="B106" s="71">
+        <v>5.7830000000000004</v>
+      </c>
+      <c r="C106" s="71">
+        <v>278052</v>
+      </c>
+      <c r="D106" s="71">
+        <v>200058</v>
+      </c>
+      <c r="E106" s="71">
+        <v>37</v>
+      </c>
+      <c r="F106" s="73">
+        <v>12600</v>
+      </c>
+      <c r="G106" s="73">
+        <v>5.0069999999999997E-6</v>
+      </c>
+      <c r="H106" s="71">
+        <v>135619</v>
+      </c>
+      <c r="I106" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J106" s="72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="66"/>
+      <c r="B107" s="71">
+        <v>1.49</v>
+      </c>
+      <c r="C107" s="71">
+        <v>71624</v>
+      </c>
+      <c r="D107" s="71">
         <v>0</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="E107" s="71">
+        <v>8</v>
+      </c>
+      <c r="F107" s="73">
+        <v>19400</v>
+      </c>
+      <c r="G107" s="73">
+        <v>8.8279999999999992E-6</v>
+      </c>
+      <c r="H107" s="71">
+        <v>224372</v>
+      </c>
+      <c r="I107" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J107" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="66"/>
+      <c r="B108" s="71">
+        <v>1.49</v>
+      </c>
+      <c r="C108" s="71">
+        <v>71624</v>
+      </c>
+      <c r="D108" s="71">
+        <v>0</v>
+      </c>
+      <c r="E108" s="71">
+        <v>8</v>
+      </c>
+      <c r="F108" s="73">
+        <v>19400</v>
+      </c>
+      <c r="G108" s="73">
+        <v>8.8279999999999992E-6</v>
+      </c>
+      <c r="H108" s="71">
+        <v>59753</v>
+      </c>
+      <c r="I108" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J108" s="72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="74"/>
+      <c r="B109" s="75">
+        <v>1.49</v>
+      </c>
+      <c r="C109" s="75">
+        <v>71624</v>
+      </c>
+      <c r="D109" s="75">
+        <v>71624</v>
+      </c>
+      <c r="E109" s="75">
+        <v>8</v>
+      </c>
+      <c r="F109" s="81">
+        <v>19400</v>
+      </c>
+      <c r="G109" s="81">
+        <v>4.316E-5</v>
+      </c>
+      <c r="H109" s="75">
+        <v>2014542</v>
+      </c>
+      <c r="I109" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="J109" s="76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F110" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G110" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I110" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J110" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="66"/>
+      <c r="B111" s="71">
+        <v>79.25</v>
+      </c>
+      <c r="C111" s="71">
+        <v>4091136</v>
+      </c>
+      <c r="D111" s="71">
+        <v>4091136</v>
+      </c>
+      <c r="E111" s="71">
+        <v>22891729</v>
+      </c>
+      <c r="F111" s="71">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="G111" s="71">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="H111" s="71">
+        <v>0</v>
+      </c>
+      <c r="I111" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="J111" s="72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="69" t="s">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="66"/>
+      <c r="B112" s="71">
+        <v>20.75</v>
+      </c>
+      <c r="C112" s="71">
+        <v>1071146</v>
+      </c>
+      <c r="D112" s="71">
+        <v>41889</v>
+      </c>
+      <c r="E112" s="71">
+        <v>4553</v>
+      </c>
+      <c r="F112" s="71">
+        <v>469</v>
+      </c>
+      <c r="G112" s="73">
+        <v>6.8719999999999996E-6</v>
+      </c>
+      <c r="H112" s="71">
+        <v>1</v>
+      </c>
+      <c r="I112" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J112" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="66"/>
+      <c r="B113" s="71">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="C113" s="71">
+        <v>911044</v>
+      </c>
+      <c r="D113" s="71">
+        <v>1981</v>
+      </c>
+      <c r="E113" s="71">
+        <v>3546</v>
+      </c>
+      <c r="F113" s="71">
+        <v>507</v>
+      </c>
+      <c r="G113" s="73">
+        <v>5.4280000000000004E-6</v>
+      </c>
+      <c r="H113" s="71">
+        <v>131567</v>
+      </c>
+      <c r="I113" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J113" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="66"/>
+      <c r="B114" s="71">
+        <v>13.48</v>
+      </c>
+      <c r="C114" s="71">
+        <v>695707</v>
+      </c>
+      <c r="D114" s="71">
+        <v>0</v>
+      </c>
+      <c r="E114" s="71">
+        <v>642</v>
+      </c>
+      <c r="F114" s="73">
+        <v>2060</v>
+      </c>
+      <c r="G114" s="73">
+        <v>2.9580000000000001E-5</v>
+      </c>
+      <c r="H114" s="71">
+        <v>2157</v>
+      </c>
+      <c r="I114" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J114" s="72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="66"/>
+      <c r="B115" s="71">
+        <v>13.48</v>
+      </c>
+      <c r="C115" s="71">
+        <v>695707</v>
+      </c>
+      <c r="D115" s="71">
+        <v>0</v>
+      </c>
+      <c r="E115" s="71">
+        <v>642</v>
+      </c>
+      <c r="F115" s="73">
+        <v>2060</v>
+      </c>
+      <c r="G115" s="73">
+        <v>3.5339999999999997E-5</v>
+      </c>
+      <c r="H115" s="71">
+        <v>28890</v>
+      </c>
+      <c r="I115" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J115" s="72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="66"/>
+      <c r="B116" s="71">
+        <v>13.48</v>
+      </c>
+      <c r="C116" s="71">
+        <v>695629</v>
+      </c>
+      <c r="D116" s="71">
+        <v>0</v>
+      </c>
+      <c r="E116" s="71">
+        <v>616</v>
+      </c>
+      <c r="F116" s="73">
+        <v>2150</v>
+      </c>
+      <c r="G116" s="71">
+        <v>5.4440000000000001E-4</v>
+      </c>
+      <c r="H116" s="71">
+        <v>183939</v>
+      </c>
+      <c r="I116" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J116" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="66"/>
+      <c r="B117" s="71">
+        <v>13.48</v>
+      </c>
+      <c r="C117" s="71">
+        <v>695629</v>
+      </c>
+      <c r="D117" s="71">
+        <v>0</v>
+      </c>
+      <c r="E117" s="71">
+        <v>616</v>
+      </c>
+      <c r="F117" s="73">
+        <v>2150</v>
+      </c>
+      <c r="G117" s="71">
+        <v>5.4440000000000001E-4</v>
+      </c>
+      <c r="H117" s="71">
+        <v>2182</v>
+      </c>
+      <c r="I117" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J117" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="66"/>
+      <c r="B118" s="71">
+        <v>13.48</v>
+      </c>
+      <c r="C118" s="71">
+        <v>695628</v>
+      </c>
+      <c r="D118" s="71">
+        <v>450</v>
+      </c>
+      <c r="E118" s="71">
+        <v>615</v>
+      </c>
+      <c r="F118" s="73">
+        <v>2160</v>
+      </c>
+      <c r="G118" s="71">
+        <v>1.2160000000000001E-3</v>
+      </c>
+      <c r="H118" s="71">
+        <v>196117</v>
+      </c>
+      <c r="I118" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J118" s="72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="66"/>
+      <c r="B119" s="71">
+        <v>13.47</v>
+      </c>
+      <c r="C119" s="71">
+        <v>695178</v>
+      </c>
+      <c r="D119" s="71">
+        <v>72147</v>
+      </c>
+      <c r="E119" s="71">
+        <v>613</v>
+      </c>
+      <c r="F119" s="73">
+        <v>2160</v>
+      </c>
+      <c r="G119" s="71">
+        <v>1.4450000000000001E-3</v>
+      </c>
+      <c r="H119" s="71">
+        <v>196118</v>
+      </c>
+      <c r="I119" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J119" s="72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="66"/>
+      <c r="B120" s="71">
+        <v>12.07</v>
+      </c>
+      <c r="C120" s="71">
+        <v>622975</v>
+      </c>
+      <c r="D120" s="71">
+        <v>0</v>
+      </c>
+      <c r="E120" s="71">
+        <v>499</v>
+      </c>
+      <c r="F120" s="73">
+        <v>2360</v>
+      </c>
+      <c r="G120" s="71">
+        <v>6.9329999999999999E-3</v>
+      </c>
+      <c r="H120" s="71">
+        <v>2190</v>
+      </c>
+      <c r="I120" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="J120" s="72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="74"/>
+      <c r="B121" s="75">
+        <v>12.07</v>
+      </c>
+      <c r="C121" s="75">
+        <v>622975</v>
+      </c>
+      <c r="D121" s="75">
+        <v>622975</v>
+      </c>
+      <c r="E121" s="75">
+        <v>499</v>
+      </c>
+      <c r="F121" s="81">
+        <v>2360</v>
+      </c>
+      <c r="G121" s="75">
+        <v>6.9329999999999999E-3</v>
+      </c>
+      <c r="H121" s="75">
+        <v>243232</v>
+      </c>
+      <c r="I121" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="J121" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C122" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D122" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E122" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F122" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G122" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H122" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I122" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J122" s="86" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="64">
-        <v>100</v>
-      </c>
-      <c r="C17" s="65">
-        <v>4644190</v>
-      </c>
-      <c r="D17" s="65">
-        <v>4644190</v>
-      </c>
-      <c r="E17" s="65">
-        <v>44626315</v>
-      </c>
-      <c r="F17" s="65">
-        <v>4.76</v>
-      </c>
-      <c r="G17" s="65">
-        <v>5.1989999999999998</v>
-      </c>
-      <c r="H17" s="65">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="94"/>
+      <c r="B123" s="71">
+        <v>86.95</v>
+      </c>
+      <c r="C123" s="71">
+        <v>4385013</v>
+      </c>
+      <c r="D123" s="71">
+        <v>4385013</v>
+      </c>
+      <c r="E123" s="71">
+        <v>18360959</v>
+      </c>
+      <c r="F123" s="71">
+        <v>8.18</v>
+      </c>
+      <c r="G123" s="71">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="H123" s="71">
         <v>0</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I123" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J123" s="72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="64">
-        <v>100</v>
-      </c>
-      <c r="C19" s="65">
-        <v>5165665</v>
-      </c>
-      <c r="D19" s="65">
-        <v>5165665</v>
-      </c>
-      <c r="E19" s="65">
-        <v>30961750</v>
-      </c>
-      <c r="F19" s="65">
-        <v>7.68</v>
-      </c>
-      <c r="G19" s="65">
-        <v>3.6070000000000002</v>
-      </c>
-      <c r="H19" s="65">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="95"/>
+      <c r="B124" s="71">
+        <v>13.05</v>
+      </c>
+      <c r="C124" s="71">
+        <v>658029</v>
+      </c>
+      <c r="D124" s="71">
+        <v>44590</v>
+      </c>
+      <c r="E124" s="71">
+        <v>4095</v>
+      </c>
+      <c r="F124" s="71">
+        <v>283</v>
+      </c>
+      <c r="G124" s="73">
+        <v>6.1809999999999998E-6</v>
+      </c>
+      <c r="H124" s="71">
+        <v>1</v>
+      </c>
+      <c r="I124" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J124" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="95"/>
+      <c r="B125" s="71">
+        <v>9.9649999999999999</v>
+      </c>
+      <c r="C125" s="71">
+        <v>502542</v>
+      </c>
+      <c r="D125" s="71">
+        <v>1970</v>
+      </c>
+      <c r="E125" s="71">
+        <v>3100</v>
+      </c>
+      <c r="F125" s="71">
+        <v>279</v>
+      </c>
+      <c r="G125" s="73">
+        <v>4.7450000000000003E-6</v>
+      </c>
+      <c r="H125" s="71">
+        <v>131567</v>
+      </c>
+      <c r="I125" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J125" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="95"/>
+      <c r="B126" s="71">
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="C126" s="71">
+        <v>342074</v>
+      </c>
+      <c r="D126" s="71">
         <v>0</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="E126" s="71">
+        <v>581</v>
+      </c>
+      <c r="F126" s="71">
+        <v>977</v>
+      </c>
+      <c r="G126" s="73">
+        <v>2.6769999999999999E-5</v>
+      </c>
+      <c r="H126" s="71">
+        <v>2157</v>
+      </c>
+      <c r="I126" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J126" s="72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="95"/>
+      <c r="B127" s="71">
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="C127" s="71">
+        <v>342074</v>
+      </c>
+      <c r="D127" s="71">
+        <v>1</v>
+      </c>
+      <c r="E127" s="71">
+        <v>581</v>
+      </c>
+      <c r="F127" s="71">
+        <v>977</v>
+      </c>
+      <c r="G127" s="73">
+        <v>3.1989999999999997E-5</v>
+      </c>
+      <c r="H127" s="71">
+        <v>28890</v>
+      </c>
+      <c r="I127" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J127" s="72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="95"/>
+      <c r="B128" s="71">
+        <v>6.7809999999999997</v>
+      </c>
+      <c r="C128" s="71">
+        <v>341965</v>
+      </c>
+      <c r="D128" s="71">
+        <v>0</v>
+      </c>
+      <c r="E128" s="71">
+        <v>545</v>
+      </c>
+      <c r="F128" s="73">
+        <v>1040</v>
+      </c>
+      <c r="G128" s="71">
+        <v>4.816E-4</v>
+      </c>
+      <c r="H128" s="71">
+        <v>183939</v>
+      </c>
+      <c r="I128" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J128" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="95"/>
+      <c r="B129" s="71">
+        <v>6.7809999999999997</v>
+      </c>
+      <c r="C129" s="71">
+        <v>341965</v>
+      </c>
+      <c r="D129" s="71">
+        <v>0</v>
+      </c>
+      <c r="E129" s="71">
+        <v>545</v>
+      </c>
+      <c r="F129" s="73">
+        <v>1040</v>
+      </c>
+      <c r="G129" s="71">
+        <v>4.816E-4</v>
+      </c>
+      <c r="H129" s="71">
+        <v>2182</v>
+      </c>
+      <c r="I129" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J129" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="95"/>
+      <c r="B130" s="71">
+        <v>6.7809999999999997</v>
+      </c>
+      <c r="C130" s="71">
+        <v>341964</v>
+      </c>
+      <c r="D130" s="71">
+        <v>355</v>
+      </c>
+      <c r="E130" s="71">
+        <v>543</v>
+      </c>
+      <c r="F130" s="73">
+        <v>1050</v>
+      </c>
+      <c r="G130" s="71">
+        <v>1.0740000000000001E-3</v>
+      </c>
+      <c r="H130" s="71">
+        <v>196117</v>
+      </c>
+      <c r="I130" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J130" s="72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="95"/>
+      <c r="B131" s="71">
+        <v>6.774</v>
+      </c>
+      <c r="C131" s="71">
+        <v>341609</v>
+      </c>
+      <c r="D131" s="71">
+        <v>42836</v>
+      </c>
+      <c r="E131" s="71">
+        <v>542</v>
+      </c>
+      <c r="F131" s="73">
+        <v>1050</v>
+      </c>
+      <c r="G131" s="71">
+        <v>1.2780000000000001E-3</v>
+      </c>
+      <c r="H131" s="71">
+        <v>196118</v>
+      </c>
+      <c r="I131" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J131" s="72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="95"/>
+      <c r="B132" s="71">
+        <v>5.9240000000000004</v>
+      </c>
+      <c r="C132" s="71">
+        <v>298747</v>
+      </c>
+      <c r="D132" s="71">
+        <v>0</v>
+      </c>
+      <c r="E132" s="71">
+        <v>451</v>
+      </c>
+      <c r="F132" s="73">
+        <v>1110</v>
+      </c>
+      <c r="G132" s="71">
+        <v>6.2659999999999999E-3</v>
+      </c>
+      <c r="H132" s="71">
+        <v>2190</v>
+      </c>
+      <c r="I132" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="J132" s="72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="96"/>
+      <c r="B133" s="75">
+        <v>5.9240000000000004</v>
+      </c>
+      <c r="C133" s="75">
+        <v>298747</v>
+      </c>
+      <c r="D133" s="75">
+        <v>298747</v>
+      </c>
+      <c r="E133" s="75">
+        <v>451</v>
+      </c>
+      <c r="F133" s="81">
+        <v>1110</v>
+      </c>
+      <c r="G133" s="75">
+        <v>6.2659999999999999E-3</v>
+      </c>
+      <c r="H133" s="75">
+        <v>243232</v>
+      </c>
+      <c r="I133" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="64">
-        <v>100</v>
-      </c>
-      <c r="C21" s="65">
-        <v>4762430</v>
-      </c>
-      <c r="D21" s="65">
-        <v>4762430</v>
-      </c>
-      <c r="E21" s="65">
-        <v>34506855</v>
-      </c>
-      <c r="F21" s="65">
-        <v>5.79</v>
-      </c>
-      <c r="G21" s="65">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="H21" s="65">
-        <v>0</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="64">
-        <v>100</v>
-      </c>
-      <c r="C23" s="65">
-        <v>3940883</v>
-      </c>
-      <c r="D23" s="65">
-        <v>3940883</v>
-      </c>
-      <c r="E23" s="65">
-        <v>25238264</v>
-      </c>
-      <c r="F23" s="65">
-        <v>6.69</v>
-      </c>
-      <c r="G23" s="65">
-        <v>2.94</v>
-      </c>
-      <c r="H23" s="65">
-        <v>0</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="64">
-        <v>100</v>
-      </c>
-      <c r="C25" s="65">
-        <v>3815108</v>
-      </c>
-      <c r="D25" s="65">
-        <v>3815108</v>
-      </c>
-      <c r="E25" s="65">
-        <v>26753667</v>
-      </c>
-      <c r="F25" s="65">
-        <v>6.89</v>
-      </c>
-      <c r="G25" s="65">
-        <v>3.117</v>
-      </c>
-      <c r="H25" s="65">
-        <v>0</v>
-      </c>
-      <c r="I25" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="64">
-        <v>100</v>
-      </c>
-      <c r="C27" s="65">
-        <v>4908981</v>
-      </c>
-      <c r="D27" s="65">
-        <v>4908981</v>
-      </c>
-      <c r="E27" s="65">
-        <v>40052870</v>
-      </c>
-      <c r="F27" s="65">
-        <v>5.09</v>
-      </c>
-      <c r="G27" s="65">
-        <v>4.6660000000000004</v>
-      </c>
-      <c r="H27" s="65">
-        <v>0</v>
-      </c>
-      <c r="I27" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="64">
-        <v>100</v>
-      </c>
-      <c r="C29" s="65">
-        <v>4193516</v>
-      </c>
-      <c r="D29" s="65">
-        <v>4193516</v>
-      </c>
-      <c r="E29" s="65">
-        <v>42737122</v>
-      </c>
-      <c r="F29" s="65">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="G29" s="65">
-        <v>4.9790000000000001</v>
-      </c>
-      <c r="H29" s="65">
-        <v>0</v>
-      </c>
-      <c r="I29" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="64">
-        <v>100</v>
-      </c>
-      <c r="C31" s="65">
-        <v>4091136</v>
-      </c>
-      <c r="D31" s="65">
-        <v>4091136</v>
-      </c>
-      <c r="E31" s="65">
-        <v>22891729</v>
-      </c>
-      <c r="F31" s="65">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="G31" s="65">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="H31" s="65">
-        <v>0</v>
-      </c>
-      <c r="I31" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
-      <c r="B33" s="64">
-        <v>100</v>
-      </c>
-      <c r="C33" s="65">
-        <v>4385013</v>
-      </c>
-      <c r="D33" s="65">
-        <v>4385013</v>
-      </c>
-      <c r="E33" s="65">
-        <v>18360959</v>
-      </c>
-      <c r="F33" s="65">
-        <v>8.18</v>
-      </c>
-      <c r="G33" s="65">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="H33" s="65">
-        <v>0</v>
-      </c>
-      <c r="I33" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
+      <c r="J133" s="76" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="A69:A79"/>
+    <mergeCell ref="A122:A123"/>
     <mergeCell ref="A1:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="A99:A109"/>
+    <mergeCell ref="A110:A121"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>